--- a/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
+++ b/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1130,6 +1130,9920 @@
         <v>25.5</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>901</v>
+      </c>
+      <c r="B16" t="n">
+        <v>308907</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>31</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-800</v>
+      </c>
+      <c r="M16" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>901</v>
+      </c>
+      <c r="B17" t="n">
+        <v>308908</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>JacksonvilleSt</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>52</v>
+      </c>
+      <c r="L17" t="n">
+        <v>550</v>
+      </c>
+      <c r="M17" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>902</v>
+      </c>
+      <c r="B18" t="n">
+        <v>137</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BoiseState</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31</v>
+      </c>
+      <c r="J18" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>67</v>
+      </c>
+      <c r="L18" t="n">
+        <v>190</v>
+      </c>
+      <c r="M18" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>902</v>
+      </c>
+      <c r="B19" t="n">
+        <v>138</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CentralFlorida</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>36</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>902</v>
+      </c>
+      <c r="B20" t="n">
+        <v>139</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>EastCarolina</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" t="n">
+        <v>19</v>
+      </c>
+      <c r="J20" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>56</v>
+      </c>
+      <c r="L20" t="n">
+        <v>290</v>
+      </c>
+      <c r="M20" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>902</v>
+      </c>
+      <c r="B21" t="n">
+        <v>140</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AppalachianSt</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>14</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>33</v>
+      </c>
+      <c r="J21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-350</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>902</v>
+      </c>
+      <c r="B22" t="n">
+        <v>141</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SouthFlorida</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>58</v>
+      </c>
+      <c r="L22" t="n">
+        <v>750</v>
+      </c>
+      <c r="M22" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>902</v>
+      </c>
+      <c r="B23" t="n">
+        <v>142</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NCState</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>45</v>
+      </c>
+      <c r="J23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>902</v>
+      </c>
+      <c r="B24" t="n">
+        <v>143</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>BowlingGreen</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>902</v>
+      </c>
+      <c r="B25" t="n">
+        <v>144</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TennesseeU</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>14</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>14</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" t="n">
+        <v>38</v>
+      </c>
+      <c r="J25" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>37</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>902</v>
+      </c>
+      <c r="B26" t="n">
+        <v>145</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OhioState</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>21</v>
+      </c>
+      <c r="H26" t="n">
+        <v>14</v>
+      </c>
+      <c r="I26" t="n">
+        <v>45</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>902</v>
+      </c>
+      <c r="B27" t="n">
+        <v>146</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MinnesotaU</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>14</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
+        <v>31</v>
+      </c>
+      <c r="J27" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>62</v>
+      </c>
+      <c r="L27" t="n">
+        <v>450</v>
+      </c>
+      <c r="M27" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>902</v>
+      </c>
+      <c r="B28" t="n">
+        <v>308911</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TheCitadel</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>902</v>
+      </c>
+      <c r="B29" t="n">
+        <v>308912</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CoastalCarolina</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>24</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>52</v>
+      </c>
+      <c r="J29" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>33</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>902</v>
+      </c>
+      <c r="B30" t="n">
+        <v>308913</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wagner</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>902</v>
+      </c>
+      <c r="B31" t="n">
+        <v>308914</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BuffaloU</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>14</v>
+      </c>
+      <c r="F31" t="n">
+        <v>24</v>
+      </c>
+      <c r="G31" t="n">
+        <v>21</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" t="n">
+        <v>69</v>
+      </c>
+      <c r="J31" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>902</v>
+      </c>
+      <c r="B32" t="n">
+        <v>308915</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LongIsland</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>49</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>902</v>
+      </c>
+      <c r="B33" t="n">
+        <v>308916</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FloridaIntl</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>21</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>48</v>
+      </c>
+      <c r="J33" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>35</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>902</v>
+      </c>
+      <c r="B34" t="n">
+        <v>308917</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>WesternIllinois</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>21</v>
+      </c>
+      <c r="J34" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>902</v>
+      </c>
+      <c r="B35" t="n">
+        <v>308918</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>BallState</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>14</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="n">
+        <v>31</v>
+      </c>
+      <c r="J35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>902</v>
+      </c>
+      <c r="B36" t="n">
+        <v>308919</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>UCDavis</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>902</v>
+      </c>
+      <c r="B37" t="n">
+        <v>308920</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tulsa</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>17</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>902</v>
+      </c>
+      <c r="B38" t="n">
+        <v>308921</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>WeberSt</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>49</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>902</v>
+      </c>
+      <c r="B39" t="n">
+        <v>308922</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>13</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>14</v>
+      </c>
+      <c r="I39" t="n">
+        <v>40</v>
+      </c>
+      <c r="J39" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>29</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>902</v>
+      </c>
+      <c r="B40" t="n">
+        <v>308923</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>HoustonBaptist</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+      <c r="I40" t="n">
+        <v>17</v>
+      </c>
+      <c r="J40" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1275</v>
+      </c>
+      <c r="M40" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>902</v>
+      </c>
+      <c r="B41" t="n">
+        <v>308924</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NewMexico</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>14</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>27</v>
+      </c>
+      <c r="J41" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-2200</v>
+      </c>
+      <c r="M41" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>902</v>
+      </c>
+      <c r="B42" t="n">
+        <v>308925</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TennesseeMartin</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>21</v>
+      </c>
+      <c r="J42" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M42" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>902</v>
+      </c>
+      <c r="B43" t="n">
+        <v>308926</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>WesternKentucky</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>21</v>
+      </c>
+      <c r="G43" t="n">
+        <v>17</v>
+      </c>
+      <c r="H43" t="n">
+        <v>14</v>
+      </c>
+      <c r="I43" t="n">
+        <v>59</v>
+      </c>
+      <c r="J43" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>24</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-1800</v>
+      </c>
+      <c r="M43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>902</v>
+      </c>
+      <c r="B44" t="n">
+        <v>308927</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>EastWashington</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>17</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>35</v>
+      </c>
+      <c r="J44" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>902</v>
+      </c>
+      <c r="B45" t="n">
+        <v>308928</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>UNLV</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>14</v>
+      </c>
+      <c r="I45" t="n">
+        <v>33</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>66</v>
+      </c>
+      <c r="L45" t="n">
+        <v>120</v>
+      </c>
+      <c r="M45" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>902</v>
+      </c>
+      <c r="B46" t="n">
+        <v>308929</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SouthernUtah</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>902</v>
+      </c>
+      <c r="B47" t="n">
+        <v>308930</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>ArizonaState</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>13</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+      <c r="I47" t="n">
+        <v>41</v>
+      </c>
+      <c r="J47" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>44</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>902</v>
+      </c>
+      <c r="B48" t="n">
+        <v>308941</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NewHampshire</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>14</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>27</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>38</v>
+      </c>
+      <c r="L48" t="n">
+        <v>105</v>
+      </c>
+      <c r="M48" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>902</v>
+      </c>
+      <c r="B49" t="n">
+        <v>308942</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>StonyBrook</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>14</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>21</v>
+      </c>
+      <c r="J49" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>902</v>
+      </c>
+      <c r="B50" t="n">
+        <v>308943</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>TennesseeTech</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14</v>
+      </c>
+      <c r="J50" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>380</v>
+      </c>
+      <c r="M50" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>902</v>
+      </c>
+      <c r="B51" t="n">
+        <v>308944</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Samford</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>14</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>21</v>
+      </c>
+      <c r="H51" t="n">
+        <v>14</v>
+      </c>
+      <c r="I51" t="n">
+        <v>52</v>
+      </c>
+      <c r="J51" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-460</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>902</v>
+      </c>
+      <c r="B52" t="n">
+        <v>308945</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>34</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6</v>
+      </c>
+      <c r="K52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-330</v>
+      </c>
+      <c r="M52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>902</v>
+      </c>
+      <c r="B53" t="n">
+        <v>308946</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>24</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>48</v>
+      </c>
+      <c r="L53" t="n">
+        <v>270</v>
+      </c>
+      <c r="M53" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>902</v>
+      </c>
+      <c r="B54" t="n">
+        <v>308947</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>IncarnateWord</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>14</v>
+      </c>
+      <c r="G54" t="n">
+        <v>13</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>41</v>
+      </c>
+      <c r="J54" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>62</v>
+      </c>
+      <c r="L54" t="n">
+        <v>210</v>
+      </c>
+      <c r="M54" t="n">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>902</v>
+      </c>
+      <c r="B55" t="n">
+        <v>308948</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>YoungstownSt</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>14</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+      <c r="I55" t="n">
+        <v>44</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8</v>
+      </c>
+      <c r="K55" t="n">
+        <v>6</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-250</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>902</v>
+      </c>
+      <c r="B56" t="n">
+        <v>308949</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SoIllinois</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>14</v>
+      </c>
+      <c r="F56" t="n">
+        <v>14</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10</v>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+      <c r="I56" t="n">
+        <v>47</v>
+      </c>
+      <c r="J56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-430</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>902</v>
+      </c>
+      <c r="B57" t="n">
+        <v>308950</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SEMissouriSt</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>21</v>
+      </c>
+      <c r="J57" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L57" t="n">
+        <v>360</v>
+      </c>
+      <c r="M57" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>902</v>
+      </c>
+      <c r="B58" t="n">
+        <v>308951</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>AustinPeay</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>30</v>
+      </c>
+      <c r="J58" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>165</v>
+      </c>
+      <c r="M58" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>902</v>
+      </c>
+      <c r="B59" t="n">
+        <v>308952</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Chattanooga</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>902</v>
+      </c>
+      <c r="B60" t="n">
+        <v>308953</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Miss.ValleySt</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>902</v>
+      </c>
+      <c r="B61" t="n">
+        <v>308954</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>MurraySt</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>14</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+      <c r="I61" t="n">
+        <v>35</v>
+      </c>
+      <c r="J61" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>902</v>
+      </c>
+      <c r="B62" t="n">
+        <v>308955</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SamHoustonSt</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>14</v>
+      </c>
+      <c r="G62" t="n">
+        <v>14</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+      <c r="I62" t="n">
+        <v>42</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>11</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-420</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>902</v>
+      </c>
+      <c r="B63" t="n">
+        <v>308956</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NorthernArizona</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>16</v>
+      </c>
+      <c r="J63" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L63" t="n">
+        <v>350</v>
+      </c>
+      <c r="M63" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>903</v>
+      </c>
+      <c r="B64" t="n">
+        <v>147</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NorthCarolina</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10</v>
+      </c>
+      <c r="J64" t="n">
+        <v>6</v>
+      </c>
+      <c r="K64" t="n">
+        <v>5</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-190</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>903</v>
+      </c>
+      <c r="B65" t="n">
+        <v>148</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>VirginiaTech</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>7</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>17</v>
+      </c>
+      <c r="J65" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="L65" t="n">
+        <v>170</v>
+      </c>
+      <c r="M65" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>903</v>
+      </c>
+      <c r="B66" t="n">
+        <v>149</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>OldDominion</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M66" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>903</v>
+      </c>
+      <c r="B67" t="n">
+        <v>150</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>WakeForest</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>14</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+      <c r="I67" t="n">
+        <v>42</v>
+      </c>
+      <c r="J67" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-10500</v>
+      </c>
+      <c r="M67" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>903</v>
+      </c>
+      <c r="B68" t="n">
+        <v>151</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Duke</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>14</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>14</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>7.5ev</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-225</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>903</v>
+      </c>
+      <c r="B69" t="n">
+        <v>152</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7</v>
+      </c>
+      <c r="H69" t="n">
+        <v>14</v>
+      </c>
+      <c r="I69" t="n">
+        <v>31</v>
+      </c>
+      <c r="J69" t="n">
+        <v>59</v>
+      </c>
+      <c r="K69" t="n">
+        <v>60</v>
+      </c>
+      <c r="L69" t="n">
+        <v>195</v>
+      </c>
+      <c r="M69" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>903</v>
+      </c>
+      <c r="B70" t="n">
+        <v>153</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MichiganState</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>14</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+      <c r="I70" t="n">
+        <v>38</v>
+      </c>
+      <c r="J70" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="L70" t="n">
+        <v>150</v>
+      </c>
+      <c r="M70" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>903</v>
+      </c>
+      <c r="B71" t="n">
+        <v>154</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Northwestern</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>7</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>14</v>
+      </c>
+      <c r="I71" t="n">
+        <v>21</v>
+      </c>
+      <c r="J71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>903</v>
+      </c>
+      <c r="B72" t="n">
+        <v>308961</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>St.Francis(PA)</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>15</v>
+      </c>
+      <c r="J72" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>903</v>
+      </c>
+      <c r="B73" t="n">
+        <v>308962</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>EasternMichigan</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>14</v>
+      </c>
+      <c r="F73" t="n">
+        <v>14</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>35</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>903</v>
+      </c>
+      <c r="B74" t="n">
+        <v>308963</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SouthDakota</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7</v>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+      <c r="I74" t="n">
+        <v>14</v>
+      </c>
+      <c r="J74" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>55</v>
+      </c>
+      <c r="L74" t="n">
+        <v>380</v>
+      </c>
+      <c r="M74" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>903</v>
+      </c>
+      <c r="B75" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Kansas</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>7</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+      <c r="I75" t="n">
+        <v>17</v>
+      </c>
+      <c r="J75" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-460</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>903</v>
+      </c>
+      <c r="B76" t="n">
+        <v>308965</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NO.Colorado</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>7</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>57</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>903</v>
+      </c>
+      <c r="B77" t="n">
+        <v>308966</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>14</v>
+      </c>
+      <c r="G77" t="n">
+        <v>7</v>
+      </c>
+      <c r="H77" t="n">
+        <v>14</v>
+      </c>
+      <c r="I77" t="n">
+        <v>35</v>
+      </c>
+      <c r="J77" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>903</v>
+      </c>
+      <c r="B78" t="n">
+        <v>308967</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SouthDakotaSt</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>7</v>
+      </c>
+      <c r="F78" t="n">
+        <v>14</v>
+      </c>
+      <c r="G78" t="n">
+        <v>14</v>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+      <c r="I78" t="n">
+        <v>42</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L78" t="n">
+        <v>110</v>
+      </c>
+      <c r="M78" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>903</v>
+      </c>
+      <c r="B79" t="n">
+        <v>308968</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ColoradoState</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>13</v>
+      </c>
+      <c r="I79" t="n">
+        <v>23</v>
+      </c>
+      <c r="J79" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>904</v>
+      </c>
+      <c r="B80" t="n">
+        <v>155</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>WesternMichigan</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+      <c r="I80" t="n">
+        <v>14</v>
+      </c>
+      <c r="J80" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="L80" t="n">
+        <v>600</v>
+      </c>
+      <c r="M80" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>904</v>
+      </c>
+      <c r="B81" t="n">
+        <v>156</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Michigan</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>17</v>
+      </c>
+      <c r="G81" t="n">
+        <v>6</v>
+      </c>
+      <c r="H81" t="n">
+        <v>14</v>
+      </c>
+      <c r="I81" t="n">
+        <v>47</v>
+      </c>
+      <c r="J81" t="n">
+        <v>17</v>
+      </c>
+      <c r="K81" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-900</v>
+      </c>
+      <c r="M81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>904</v>
+      </c>
+      <c r="B82" t="n">
+        <v>157</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Army</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>14</v>
+      </c>
+      <c r="F82" t="n">
+        <v>13</v>
+      </c>
+      <c r="G82" t="n">
+        <v>6</v>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+      <c r="I82" t="n">
+        <v>43</v>
+      </c>
+      <c r="J82" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>50</v>
+      </c>
+      <c r="L82" t="n">
+        <v>115</v>
+      </c>
+      <c r="M82" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>904</v>
+      </c>
+      <c r="B83" t="n">
+        <v>158</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GeorgiaState</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>10</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>904</v>
+      </c>
+      <c r="B84" t="n">
+        <v>159</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Stanford</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+      <c r="I84" t="n">
+        <v>7</v>
+      </c>
+      <c r="J84" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L84" t="n">
+        <v>140</v>
+      </c>
+      <c r="M84" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>904</v>
+      </c>
+      <c r="B85" t="n">
+        <v>160</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>KansasState</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>7</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>904</v>
+      </c>
+      <c r="B86" t="n">
+        <v>161</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ULMonroe</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>7</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>10</v>
+      </c>
+      <c r="J86" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>54</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M86" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>904</v>
+      </c>
+      <c r="B87" t="n">
+        <v>162</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>14</v>
+      </c>
+      <c r="F87" t="n">
+        <v>14</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="n">
+        <v>14</v>
+      </c>
+      <c r="I87" t="n">
+        <v>45</v>
+      </c>
+      <c r="J87" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>31</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-7500</v>
+      </c>
+      <c r="M87" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>904</v>
+      </c>
+      <c r="B88" t="n">
+        <v>165</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>PennState</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>7</v>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L88" t="n">
+        <v>190</v>
+      </c>
+      <c r="M88" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>904</v>
+      </c>
+      <c r="B89" t="n">
+        <v>166</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>7</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>904</v>
+      </c>
+      <c r="B90" t="n">
+        <v>167</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10</v>
+      </c>
+      <c r="G90" t="n">
+        <v>7</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>17</v>
+      </c>
+      <c r="J90" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>50</v>
+      </c>
+      <c r="L90" t="n">
+        <v>800</v>
+      </c>
+      <c r="M90" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>904</v>
+      </c>
+      <c r="B91" t="n">
+        <v>168</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Arkansas</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>10</v>
+      </c>
+      <c r="H91" t="n">
+        <v>21</v>
+      </c>
+      <c r="I91" t="n">
+        <v>38</v>
+      </c>
+      <c r="J91" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>20</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="M91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>904</v>
+      </c>
+      <c r="B92" t="n">
+        <v>169</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>FresnoState</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>13</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+      <c r="I92" t="n">
+        <v>24</v>
+      </c>
+      <c r="J92" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>63</v>
+      </c>
+      <c r="L92" t="n">
+        <v>750</v>
+      </c>
+      <c r="M92" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>904</v>
+      </c>
+      <c r="B93" t="n">
+        <v>170</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>14</v>
+      </c>
+      <c r="F93" t="n">
+        <v>7</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+      <c r="I93" t="n">
+        <v>31</v>
+      </c>
+      <c r="J93" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>18</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="M93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>904</v>
+      </c>
+      <c r="B94" t="n">
+        <v>171</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>WestVirginia</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>14</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+      <c r="I94" t="n">
+        <v>24</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>904</v>
+      </c>
+      <c r="B95" t="n">
+        <v>172</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>17</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+      <c r="I95" t="n">
+        <v>30</v>
+      </c>
+      <c r="J95" t="n">
+        <v>54</v>
+      </c>
+      <c r="K95" t="n">
+        <v>57</v>
+      </c>
+      <c r="L95" t="n">
+        <v>120</v>
+      </c>
+      <c r="M95" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>904</v>
+      </c>
+      <c r="B96" t="n">
+        <v>173</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6</v>
+      </c>
+      <c r="J96" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>46</v>
+      </c>
+      <c r="L96" t="n">
+        <v>155</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>904</v>
+      </c>
+      <c r="B97" t="n">
+        <v>174</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>14</v>
+      </c>
+      <c r="F97" t="n">
+        <v>17</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" t="n">
+        <v>34</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M97" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>904</v>
+      </c>
+      <c r="B98" t="n">
+        <v>175</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>MiamiOhio</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>14</v>
+      </c>
+      <c r="I98" t="n">
+        <v>14</v>
+      </c>
+      <c r="J98" t="n">
+        <v>50</v>
+      </c>
+      <c r="K98" t="n">
+        <v>49</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M98" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>904</v>
+      </c>
+      <c r="B99" t="n">
+        <v>176</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>CincinnatiU</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>21</v>
+      </c>
+      <c r="F99" t="n">
+        <v>14</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>14</v>
+      </c>
+      <c r="I99" t="n">
+        <v>49</v>
+      </c>
+      <c r="J99" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>23</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="M99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>904</v>
+      </c>
+      <c r="B100" t="n">
+        <v>177</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>14</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7</v>
+      </c>
+      <c r="H100" t="n">
+        <v>21</v>
+      </c>
+      <c r="I100" t="n">
+        <v>49</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M100" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>904</v>
+      </c>
+      <c r="B101" t="n">
+        <v>178</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="L101" t="n">
+        <v>130</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>904</v>
+      </c>
+      <c r="B102" t="n">
+        <v>179</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>10</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17</v>
+      </c>
+      <c r="G102" t="n">
+        <v>14</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" t="n">
+        <v>44</v>
+      </c>
+      <c r="J102" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K102" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="M102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>904</v>
+      </c>
+      <c r="B103" t="n">
+        <v>180</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>MiamiFlorida</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>10</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>13</v>
+      </c>
+      <c r="J103" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="K103" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="L103" t="n">
+        <v>750</v>
+      </c>
+      <c r="M103" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>904</v>
+      </c>
+      <c r="B104" t="n">
+        <v>181</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Massachusetts</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+      <c r="I104" t="n">
+        <v>7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K104" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L104" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M104" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>904</v>
+      </c>
+      <c r="B105" t="n">
+        <v>182</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>PittsburghU</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>13</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10</v>
+      </c>
+      <c r="G105" t="n">
+        <v>14</v>
+      </c>
+      <c r="H105" t="n">
+        <v>14</v>
+      </c>
+      <c r="I105" t="n">
+        <v>51</v>
+      </c>
+      <c r="J105" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K105" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="M105" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>904</v>
+      </c>
+      <c r="B106" t="n">
+        <v>183</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>CentralMichigan</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+      <c r="I106" t="n">
+        <v>24</v>
+      </c>
+      <c r="J106" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K106" t="n">
+        <v>59</v>
+      </c>
+      <c r="L106" t="n">
+        <v>450</v>
+      </c>
+      <c r="M106" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>904</v>
+      </c>
+      <c r="B107" t="n">
+        <v>184</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10</v>
+      </c>
+      <c r="G107" t="n">
+        <v>7</v>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+      <c r="I107" t="n">
+        <v>34</v>
+      </c>
+      <c r="J107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K107" t="n">
+        <v>14</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>904</v>
+      </c>
+      <c r="B108" t="n">
+        <v>185</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>LouisianaTech</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" t="n">
+        <v>10</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" t="n">
+        <v>34</v>
+      </c>
+      <c r="J108" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K108" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M108" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>904</v>
+      </c>
+      <c r="B109" t="n">
+        <v>186</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>MississippiState</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>14</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>21</v>
+      </c>
+      <c r="I109" t="n">
+        <v>35</v>
+      </c>
+      <c r="J109" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K109" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L109" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="M109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>904</v>
+      </c>
+      <c r="B110" t="n">
+        <v>187</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>ULLafayette</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" t="n">
+        <v>6</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+      <c r="I110" t="n">
+        <v>18</v>
+      </c>
+      <c r="J110" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K110" t="n">
+        <v>58</v>
+      </c>
+      <c r="L110" t="n">
+        <v>280</v>
+      </c>
+      <c r="M110" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>904</v>
+      </c>
+      <c r="B111" t="n">
+        <v>188</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7</v>
+      </c>
+      <c r="G111" t="n">
+        <v>14</v>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+      <c r="I111" t="n">
+        <v>38</v>
+      </c>
+      <c r="J111" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K111" t="n">
+        <v>9</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-340</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>904</v>
+      </c>
+      <c r="B112" t="n">
+        <v>189</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SanJoseState</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>7</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>7</v>
+      </c>
+      <c r="J112" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="K112" t="n">
+        <v>61</v>
+      </c>
+      <c r="L112" t="n">
+        <v>475</v>
+      </c>
+      <c r="M112" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>904</v>
+      </c>
+      <c r="B113" t="n">
+        <v>190</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>10</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>17</v>
+      </c>
+      <c r="I113" t="n">
+        <v>30</v>
+      </c>
+      <c r="J113" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K113" t="n">
+        <v>14</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-650</v>
+      </c>
+      <c r="M113" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>904</v>
+      </c>
+      <c r="B114" t="n">
+        <v>191</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>OregonState</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>14</v>
+      </c>
+      <c r="I114" t="n">
+        <v>21</v>
+      </c>
+      <c r="J114" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="K114" t="n">
+        <v>68</v>
+      </c>
+      <c r="L114" t="n">
+        <v>235</v>
+      </c>
+      <c r="M114" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>904</v>
+      </c>
+      <c r="B115" t="n">
+        <v>192</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Purdue</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>7</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="n">
+        <v>14</v>
+      </c>
+      <c r="I115" t="n">
+        <v>30</v>
+      </c>
+      <c r="J115" t="n">
+        <v>6</v>
+      </c>
+      <c r="K115" t="n">
+        <v>7</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-275</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>904</v>
+      </c>
+      <c r="B116" t="n">
+        <v>193</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TexasTech</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7</v>
+      </c>
+      <c r="G116" t="n">
+        <v>17</v>
+      </c>
+      <c r="H116" t="n">
+        <v>14</v>
+      </c>
+      <c r="I116" t="n">
+        <v>38</v>
+      </c>
+      <c r="J116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K116" t="n">
+        <v>63</v>
+      </c>
+      <c r="L116" t="n">
+        <v>120</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>904</v>
+      </c>
+      <c r="B117" t="n">
+        <v>194</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>14</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>21</v>
+      </c>
+      <c r="J117" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M117" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>904</v>
+      </c>
+      <c r="B118" t="n">
+        <v>195</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Baylor</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7</v>
+      </c>
+      <c r="G118" t="n">
+        <v>10</v>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+      <c r="I118" t="n">
+        <v>29</v>
+      </c>
+      <c r="J118" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K118" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-550</v>
+      </c>
+      <c r="M118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>904</v>
+      </c>
+      <c r="B119" t="n">
+        <v>196</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>TexasState</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3</v>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+      <c r="I119" t="n">
+        <v>20</v>
+      </c>
+      <c r="J119" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="K119" t="n">
+        <v>52</v>
+      </c>
+      <c r="L119" t="n">
+        <v>425</v>
+      </c>
+      <c r="M119" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>904</v>
+      </c>
+      <c r="B120" t="n">
+        <v>197</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3</v>
+      </c>
+      <c r="G120" t="n">
+        <v>10</v>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+      <c r="I120" t="n">
+        <v>29</v>
+      </c>
+      <c r="J120" t="n">
+        <v>57</v>
+      </c>
+      <c r="K120" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L120" t="n">
+        <v>115</v>
+      </c>
+      <c r="M120" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>904</v>
+      </c>
+      <c r="B121" t="n">
+        <v>198</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+      <c r="I121" t="n">
+        <v>9</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L121" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>904</v>
+      </c>
+      <c r="B122" t="n">
+        <v>199</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Akron</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+      <c r="I122" t="n">
+        <v>10</v>
+      </c>
+      <c r="J122" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K122" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="L122" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M122" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>904</v>
+      </c>
+      <c r="B123" t="n">
+        <v>200</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Auburn</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>13</v>
+      </c>
+      <c r="F123" t="n">
+        <v>24</v>
+      </c>
+      <c r="G123" t="n">
+        <v>16</v>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+      <c r="I123" t="n">
+        <v>60</v>
+      </c>
+      <c r="J123" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K123" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="L123" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="M123" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>904</v>
+      </c>
+      <c r="B124" t="n">
+        <v>201</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>TexSanAntonio</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>13</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3</v>
+      </c>
+      <c r="H124" t="n">
+        <v>14</v>
+      </c>
+      <c r="I124" t="n">
+        <v>37</v>
+      </c>
+      <c r="J124" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K124" t="n">
+        <v>52</v>
+      </c>
+      <c r="L124" t="n">
+        <v>160</v>
+      </c>
+      <c r="M124" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>904</v>
+      </c>
+      <c r="B125" t="n">
+        <v>202</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3</v>
+      </c>
+      <c r="H125" t="n">
+        <v>13</v>
+      </c>
+      <c r="I125" t="n">
+        <v>30</v>
+      </c>
+      <c r="J125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K125" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L125" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M125" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>904</v>
+      </c>
+      <c r="B126" t="n">
+        <v>203</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>FloridaAtlantic</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>14</v>
+      </c>
+      <c r="I126" t="n">
+        <v>14</v>
+      </c>
+      <c r="J126" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M126" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>904</v>
+      </c>
+      <c r="B127" t="n">
+        <v>204</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>14</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>7</v>
+      </c>
+      <c r="H127" t="n">
+        <v>14</v>
+      </c>
+      <c r="I127" t="n">
+        <v>35</v>
+      </c>
+      <c r="J127" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K127" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="L127" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="M127" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>904</v>
+      </c>
+      <c r="B128" t="n">
+        <v>205</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>NoIllinois</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+      <c r="I128" t="n">
+        <v>22</v>
+      </c>
+      <c r="J128" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K128" t="n">
+        <v>57</v>
+      </c>
+      <c r="L128" t="n">
+        <v>700</v>
+      </c>
+      <c r="M128" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>904</v>
+      </c>
+      <c r="B129" t="n">
+        <v>206</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GeorgiaTech</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>7</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>14</v>
+      </c>
+      <c r="I129" t="n">
+        <v>21</v>
+      </c>
+      <c r="J129" t="n">
+        <v>13</v>
+      </c>
+      <c r="K129" t="n">
+        <v>19</v>
+      </c>
+      <c r="L129" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="M129" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>904</v>
+      </c>
+      <c r="B130" t="n">
+        <v>207</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>7</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>10</v>
+      </c>
+      <c r="J130" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K130" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="L130" t="n">
+        <v>120</v>
+      </c>
+      <c r="M130" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>904</v>
+      </c>
+      <c r="B131" t="n">
+        <v>208</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Clemson</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L131" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>904</v>
+      </c>
+      <c r="B132" t="n">
+        <v>209</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>SouthernMiss</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>7</v>
+      </c>
+      <c r="J132" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K132" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="L132" t="n">
+        <v>115</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>904</v>
+      </c>
+      <c r="B133" t="n">
+        <v>210</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>SouthAlabama</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>14</v>
+      </c>
+      <c r="G133" t="n">
+        <v>10</v>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+      <c r="I133" t="n">
+        <v>31</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M133" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>904</v>
+      </c>
+      <c r="B134" t="n">
+        <v>211</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>KentState</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+      <c r="I134" t="n">
+        <v>10</v>
+      </c>
+      <c r="J134" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K134" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L134" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M134" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>904</v>
+      </c>
+      <c r="B135" t="n">
+        <v>212</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>TexasA&amp;M</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>10</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>17</v>
+      </c>
+      <c r="H135" t="n">
+        <v>14</v>
+      </c>
+      <c r="I135" t="n">
+        <v>41</v>
+      </c>
+      <c r="J135" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K135" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L135" t="n">
+        <v>-9000</v>
+      </c>
+      <c r="M135" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>904</v>
+      </c>
+      <c r="B136" t="n">
+        <v>213</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10</v>
+      </c>
+      <c r="G136" t="n">
+        <v>10</v>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+      <c r="I136" t="n">
+        <v>27</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L136" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>904</v>
+      </c>
+      <c r="B137" t="n">
+        <v>214</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>14</v>
+      </c>
+      <c r="G137" t="n">
+        <v>10</v>
+      </c>
+      <c r="H137" t="n">
+        <v>14</v>
+      </c>
+      <c r="I137" t="n">
+        <v>38</v>
+      </c>
+      <c r="J137" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="K137" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="L137" t="n">
+        <v>110</v>
+      </c>
+      <c r="M137" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>904</v>
+      </c>
+      <c r="B138" t="n">
+        <v>215</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>BYU</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>14</v>
+      </c>
+      <c r="G138" t="n">
+        <v>7</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+      <c r="I138" t="n">
+        <v>24</v>
+      </c>
+      <c r="J138" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K138" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L138" t="n">
+        <v>-550</v>
+      </c>
+      <c r="M138" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>904</v>
+      </c>
+      <c r="B139" t="n">
+        <v>216</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3</v>
+      </c>
+      <c r="G139" t="n">
+        <v>10</v>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+      <c r="I139" t="n">
+        <v>16</v>
+      </c>
+      <c r="J139" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K139" t="n">
+        <v>54</v>
+      </c>
+      <c r="L139" t="n">
+        <v>425</v>
+      </c>
+      <c r="M139" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>904</v>
+      </c>
+      <c r="B140" t="n">
+        <v>217</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>13</v>
+      </c>
+      <c r="G140" t="n">
+        <v>9</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>22</v>
+      </c>
+      <c r="J140" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K140" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L140" t="n">
+        <v>125</v>
+      </c>
+      <c r="M140" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>904</v>
+      </c>
+      <c r="B141" t="n">
+        <v>218</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>14</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+      <c r="I141" t="n">
+        <v>17</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3</v>
+      </c>
+      <c r="K141" t="n">
+        <v>3</v>
+      </c>
+      <c r="L141" t="n">
+        <v>-145</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>904</v>
+      </c>
+      <c r="B142" t="n">
+        <v>219</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>NewMexicoState</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>10</v>
+      </c>
+      <c r="J142" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K142" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L142" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M142" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>904</v>
+      </c>
+      <c r="B143" t="n">
+        <v>220</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>SanDiegoState</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>21</v>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+      <c r="I143" t="n">
+        <v>28</v>
+      </c>
+      <c r="J143" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K143" t="n">
+        <v>31</v>
+      </c>
+      <c r="L143" t="n">
+        <v>-9000</v>
+      </c>
+      <c r="M143" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>904</v>
+      </c>
+      <c r="B144" t="n">
+        <v>221</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>UtahState</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>6</v>
+      </c>
+      <c r="H144" t="n">
+        <v>15</v>
+      </c>
+      <c r="I144" t="n">
+        <v>26</v>
+      </c>
+      <c r="J144" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K144" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L144" t="n">
+        <v>575</v>
+      </c>
+      <c r="M144" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>904</v>
+      </c>
+      <c r="B145" t="n">
+        <v>222</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>WashingtonState</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6</v>
+      </c>
+      <c r="G145" t="n">
+        <v>14</v>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+      <c r="I145" t="n">
+        <v>23</v>
+      </c>
+      <c r="J145" t="n">
+        <v>13</v>
+      </c>
+      <c r="K145" t="n">
+        <v>17</v>
+      </c>
+      <c r="L145" t="n">
+        <v>-850</v>
+      </c>
+      <c r="M145" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>904</v>
+      </c>
+      <c r="B146" t="n">
+        <v>227</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Tulane</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>14</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>8</v>
+      </c>
+      <c r="H146" t="n">
+        <v>13</v>
+      </c>
+      <c r="I146" t="n">
+        <v>35</v>
+      </c>
+      <c r="J146" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K146" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M146" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>904</v>
+      </c>
+      <c r="B147" t="n">
+        <v>228</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Oklahoma</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>14</v>
+      </c>
+      <c r="F147" t="n">
+        <v>23</v>
+      </c>
+      <c r="G147" t="n">
+        <v>3</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>40</v>
+      </c>
+      <c r="J147" t="n">
+        <v>31</v>
+      </c>
+      <c r="K147" t="n">
+        <v>31</v>
+      </c>
+      <c r="L147" t="n">
+        <v>-9000</v>
+      </c>
+      <c r="M147" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>904</v>
+      </c>
+      <c r="B148" t="n">
+        <v>229</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Temple</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7</v>
+      </c>
+      <c r="G148" t="n">
+        <v>7</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>14</v>
+      </c>
+      <c r="J148" t="n">
+        <v>52</v>
+      </c>
+      <c r="K148" t="n">
+        <v>52</v>
+      </c>
+      <c r="L148" t="n">
+        <v>500</v>
+      </c>
+      <c r="M148" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>904</v>
+      </c>
+      <c r="B149" t="n">
+        <v>230</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Rutgers</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>12</v>
+      </c>
+      <c r="F149" t="n">
+        <v>14</v>
+      </c>
+      <c r="G149" t="n">
+        <v>14</v>
+      </c>
+      <c r="H149" t="n">
+        <v>21</v>
+      </c>
+      <c r="I149" t="n">
+        <v>61</v>
+      </c>
+      <c r="J149" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K149" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L149" t="n">
+        <v>-700</v>
+      </c>
+      <c r="M149" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>904</v>
+      </c>
+      <c r="B150" t="n">
+        <v>308971</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>HolyCross</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="n">
+        <v>7</v>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+      <c r="I150" t="n">
+        <v>38</v>
+      </c>
+      <c r="J150" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K150" t="n">
+        <v>50</v>
+      </c>
+      <c r="L150" t="n">
+        <v>135</v>
+      </c>
+      <c r="M150" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>904</v>
+      </c>
+      <c r="B151" t="n">
+        <v>308972</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>14</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7</v>
+      </c>
+      <c r="G151" t="n">
+        <v>7</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>28</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K151" t="n">
+        <v>3</v>
+      </c>
+      <c r="L151" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>904</v>
+      </c>
+      <c r="B152" t="n">
+        <v>308973</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Colgate</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K152" t="n">
+        <v>56</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>904</v>
+      </c>
+      <c r="B153" t="n">
+        <v>308974</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>BostonCollege</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>20</v>
+      </c>
+      <c r="G153" t="n">
+        <v>3</v>
+      </c>
+      <c r="H153" t="n">
+        <v>21</v>
+      </c>
+      <c r="I153" t="n">
+        <v>51</v>
+      </c>
+      <c r="J153" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K153" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>904</v>
+      </c>
+      <c r="B154" t="n">
+        <v>308975</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Fordham</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>7</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J154" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K154" t="n">
+        <v>55</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>904</v>
+      </c>
+      <c r="B155" t="n">
+        <v>308976</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>17</v>
+      </c>
+      <c r="G155" t="n">
+        <v>14</v>
+      </c>
+      <c r="H155" t="n">
+        <v>14</v>
+      </c>
+      <c r="I155" t="n">
+        <v>52</v>
+      </c>
+      <c r="J155" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K155" t="n">
+        <v>42</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>904</v>
+      </c>
+      <c r="B156" t="n">
+        <v>308977</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Lafayette</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7</v>
+      </c>
+      <c r="G156" t="n">
+        <v>7</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>14</v>
+      </c>
+      <c r="J156" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K156" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>904</v>
+      </c>
+      <c r="B157" t="n">
+        <v>308978</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>AirForce</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>14</v>
+      </c>
+      <c r="F157" t="n">
+        <v>14</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+      <c r="I157" t="n">
+        <v>35</v>
+      </c>
+      <c r="J157" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K157" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>904</v>
+      </c>
+      <c r="B158" t="n">
+        <v>308979</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>MontanaSt</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+      <c r="I158" t="n">
+        <v>16</v>
+      </c>
+      <c r="J158" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K158" t="n">
+        <v>45</v>
+      </c>
+      <c r="L158" t="n">
+        <v>750</v>
+      </c>
+      <c r="M158" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>904</v>
+      </c>
+      <c r="B159" t="n">
+        <v>308980</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>16</v>
+      </c>
+      <c r="I159" t="n">
+        <v>19</v>
+      </c>
+      <c r="J159" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K159" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L159" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="M159" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>904</v>
+      </c>
+      <c r="B160" t="n">
+        <v>308981</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>NorthernIowa</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J160" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K160" t="n">
+        <v>50</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>904</v>
+      </c>
+      <c r="B161" t="n">
+        <v>308982</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>IowaState</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+      <c r="I161" t="n">
+        <v>16</v>
+      </c>
+      <c r="J161" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K161" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>904</v>
+      </c>
+      <c r="B162" t="n">
+        <v>308983</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>7</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>7</v>
+      </c>
+      <c r="J162" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K162" t="n">
+        <v>65</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>904</v>
+      </c>
+      <c r="B163" t="n">
+        <v>308984</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Liberty</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>14</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6</v>
+      </c>
+      <c r="G163" t="n">
+        <v>14</v>
+      </c>
+      <c r="H163" t="n">
+        <v>14</v>
+      </c>
+      <c r="I163" t="n">
+        <v>48</v>
+      </c>
+      <c r="J163" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K163" t="n">
+        <v>35</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>904</v>
+      </c>
+      <c r="B164" t="n">
+        <v>308985</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>GardnerWebb</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>6</v>
+      </c>
+      <c r="H164" t="n">
+        <v>13</v>
+      </c>
+      <c r="I164" t="n">
+        <v>25</v>
+      </c>
+      <c r="J164" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K164" t="n">
+        <v>48</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M164" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>904</v>
+      </c>
+      <c r="B165" t="n">
+        <v>308986</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>GeorgiaSouthern</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+      <c r="I165" t="n">
+        <v>30</v>
+      </c>
+      <c r="J165" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K165" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="L165" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="M165" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>904</v>
+      </c>
+      <c r="B166" t="n">
+        <v>308987</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>NorfolkSt</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+      <c r="I166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J166" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K166" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>904</v>
+      </c>
+      <c r="B167" t="n">
+        <v>308988</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Toledo</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>14</v>
+      </c>
+      <c r="F167" t="n">
+        <v>14</v>
+      </c>
+      <c r="G167" t="n">
+        <v>14</v>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+      <c r="I167" t="n">
+        <v>49</v>
+      </c>
+      <c r="J167" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K167" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>904</v>
+      </c>
+      <c r="B168" t="n">
+        <v>308989</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Southern</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K168" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M168" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>904</v>
+      </c>
+      <c r="B169" t="n">
+        <v>308990</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>14</v>
+      </c>
+      <c r="F169" t="n">
+        <v>20</v>
+      </c>
+      <c r="G169" t="n">
+        <v>14</v>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+      <c r="I169" t="n">
+        <v>55</v>
+      </c>
+      <c r="J169" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K169" t="n">
+        <v>25</v>
+      </c>
+      <c r="L169" t="n">
+        <v>-6000</v>
+      </c>
+      <c r="M169" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>904</v>
+      </c>
+      <c r="B170" t="n">
+        <v>308991</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>NichollsSt</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>7</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+      <c r="I170" t="n">
+        <v>17</v>
+      </c>
+      <c r="J170" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K170" t="n">
+        <v>68</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M170" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>904</v>
+      </c>
+      <c r="B171" t="n">
+        <v>308992</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>10</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19</v>
+      </c>
+      <c r="G171" t="n">
+        <v>6</v>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+      <c r="I171" t="n">
+        <v>42</v>
+      </c>
+      <c r="J171" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K171" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L171" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="M171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>904</v>
+      </c>
+      <c r="B172" t="n">
+        <v>308993</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>MissouriSt</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3</v>
+      </c>
+      <c r="G172" t="n">
+        <v>6</v>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+      <c r="I172" t="n">
+        <v>16</v>
+      </c>
+      <c r="J172" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K172" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>904</v>
+      </c>
+      <c r="B173" t="n">
+        <v>308994</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>OklahomaState</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>14</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+      <c r="I173" t="n">
+        <v>23</v>
+      </c>
+      <c r="J173" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K173" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>904</v>
+      </c>
+      <c r="B174" t="n">
+        <v>308995</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Monmouth</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>7</v>
+      </c>
+      <c r="G174" t="n">
+        <v>8</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>15</v>
+      </c>
+      <c r="J174" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K174" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L174" t="n">
+        <v>265</v>
+      </c>
+      <c r="M174" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>904</v>
+      </c>
+      <c r="B175" t="n">
+        <v>308996</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>MiddleTennSt</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>21</v>
+      </c>
+      <c r="G175" t="n">
+        <v>7</v>
+      </c>
+      <c r="H175" t="n">
+        <v>22</v>
+      </c>
+      <c r="I175" t="n">
+        <v>50</v>
+      </c>
+      <c r="J175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K175" t="n">
+        <v>9</v>
+      </c>
+      <c r="L175" t="n">
+        <v>-320</v>
+      </c>
+      <c r="M175" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>904</v>
+      </c>
+      <c r="B176" t="n">
+        <v>308997</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>EasternIllinois</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K176" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>904</v>
+      </c>
+      <c r="B177" t="n">
+        <v>308998</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>SouthCarolina</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>15</v>
+      </c>
+      <c r="F177" t="n">
+        <v>14</v>
+      </c>
+      <c r="G177" t="n">
+        <v>3</v>
+      </c>
+      <c r="H177" t="n">
+        <v>14</v>
+      </c>
+      <c r="I177" t="n">
+        <v>46</v>
+      </c>
+      <c r="J177" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="K177" t="n">
+        <v>31</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>904</v>
+      </c>
+      <c r="B178" t="n">
+        <v>308999</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>CentralArkansas</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>7</v>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+      <c r="I178" t="n">
+        <v>21</v>
+      </c>
+      <c r="J178" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K178" t="n">
+        <v>64</v>
+      </c>
+      <c r="L178" t="n">
+        <v>400</v>
+      </c>
+      <c r="M178" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>904</v>
+      </c>
+      <c r="B179" t="n">
+        <v>309000</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>ArkansasState</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3</v>
+      </c>
+      <c r="G179" t="n">
+        <v>14</v>
+      </c>
+      <c r="H179" t="n">
+        <v>20</v>
+      </c>
+      <c r="I179" t="n">
+        <v>40</v>
+      </c>
+      <c r="J179" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K179" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L179" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M179" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>904</v>
+      </c>
+      <c r="B180" t="n">
+        <v>309001</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>AbileneChristian</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3</v>
+      </c>
+      <c r="G180" t="n">
+        <v>6</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>9</v>
+      </c>
+      <c r="J180" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K180" t="n">
+        <v>66</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>904</v>
+      </c>
+      <c r="B181" t="n">
+        <v>309002</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>SMU</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>28</v>
+      </c>
+      <c r="G181" t="n">
+        <v>14</v>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+      <c r="I181" t="n">
+        <v>56</v>
+      </c>
+      <c r="J181" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K181" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>904</v>
+      </c>
+      <c r="B182" t="n">
+        <v>309003</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>NorthwesternSt</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>14</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>14</v>
+      </c>
+      <c r="J182" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K182" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="L182" t="n">
+        <v>800</v>
+      </c>
+      <c r="M182" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>904</v>
+      </c>
+      <c r="B183" t="n">
+        <v>309004</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>NorthTexas</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>17</v>
+      </c>
+      <c r="G183" t="n">
+        <v>17</v>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+      <c r="I183" t="n">
+        <v>44</v>
+      </c>
+      <c r="J183" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K183" t="n">
+        <v>20</v>
+      </c>
+      <c r="L183" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="M183" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>904</v>
+      </c>
+      <c r="B184" t="n">
+        <v>309005</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>William&amp;Mary</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K184" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>904</v>
+      </c>
+      <c r="B185" t="n">
+        <v>309006</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>14</v>
+      </c>
+      <c r="G185" t="n">
+        <v>12</v>
+      </c>
+      <c r="H185" t="n">
+        <v>14</v>
+      </c>
+      <c r="I185" t="n">
+        <v>43</v>
+      </c>
+      <c r="J185" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="K185" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>904</v>
+      </c>
+      <c r="B186" t="n">
+        <v>309007</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Duquesne</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>3</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J186" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K186" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>904</v>
+      </c>
+      <c r="B187" t="n">
+        <v>309008</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>TCU</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>21</v>
+      </c>
+      <c r="F187" t="n">
+        <v>14</v>
+      </c>
+      <c r="G187" t="n">
+        <v>3</v>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+      <c r="I187" t="n">
+        <v>45</v>
+      </c>
+      <c r="J187" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K187" t="n">
+        <v>42</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>904</v>
+      </c>
+      <c r="B188" t="n">
+        <v>309009</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>EastTennesseeSt</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>10</v>
+      </c>
+      <c r="G188" t="n">
+        <v>3</v>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+      <c r="I188" t="n">
+        <v>23</v>
+      </c>
+      <c r="J188" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K188" t="n">
+        <v>45</v>
+      </c>
+      <c r="L188" t="n">
+        <v>850</v>
+      </c>
+      <c r="M188" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>904</v>
+      </c>
+      <c r="B189" t="n">
+        <v>309010</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Vanderbilt</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3</v>
+      </c>
+      <c r="J189" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K189" t="n">
+        <v>21</v>
+      </c>
+      <c r="L189" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="M189" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>904</v>
+      </c>
+      <c r="B190" t="n">
+        <v>309011</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+      <c r="I190" t="n">
+        <v>13</v>
+      </c>
+      <c r="J190" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K190" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M190" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>904</v>
+      </c>
+      <c r="B191" t="n">
+        <v>309012</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>7</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>7</v>
+      </c>
+      <c r="J191" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K191" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L191" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="M191" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>904</v>
+      </c>
+      <c r="B192" t="n">
+        <v>309013</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>BethuneCookman</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>14</v>
+      </c>
+      <c r="H192" t="n">
+        <v>14</v>
+      </c>
+      <c r="I192" t="n">
+        <v>28</v>
+      </c>
+      <c r="J192" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K192" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L192" t="n">
+        <v>900</v>
+      </c>
+      <c r="M192" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>904</v>
+      </c>
+      <c r="B193" t="n">
+        <v>309014</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>10</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>7</v>
+      </c>
+      <c r="H193" t="n">
+        <v>21</v>
+      </c>
+      <c r="I193" t="n">
+        <v>38</v>
+      </c>
+      <c r="J193" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K193" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L193" t="n">
+        <v>-1600</v>
+      </c>
+      <c r="M193" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>904</v>
+      </c>
+      <c r="B194" t="n">
+        <v>309015</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>PortlandSt</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>7</v>
+      </c>
+      <c r="G194" t="n">
+        <v>21</v>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+      <c r="I194" t="n">
+        <v>35</v>
+      </c>
+      <c r="J194" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K194" t="n">
+        <v>57</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>904</v>
+      </c>
+      <c r="B195" t="n">
+        <v>309016</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>28</v>
+      </c>
+      <c r="F195" t="n">
+        <v>7</v>
+      </c>
+      <c r="G195" t="n">
+        <v>7</v>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+      <c r="I195" t="n">
+        <v>49</v>
+      </c>
+      <c r="J195" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K195" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L195" t="n">
+        <v>-6000</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>904</v>
+      </c>
+      <c r="B196" t="n">
+        <v>309023</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Villanova</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>6</v>
+      </c>
+      <c r="F196" t="n">
+        <v>14</v>
+      </c>
+      <c r="G196" t="n">
+        <v>24</v>
+      </c>
+      <c r="H196" t="n">
+        <v>3</v>
+      </c>
+      <c r="I196" t="n">
+        <v>47</v>
+      </c>
+      <c r="J196" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K196" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L196" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="M196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>904</v>
+      </c>
+      <c r="B197" t="n">
+        <v>309024</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Lehigh</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3</v>
+      </c>
+      <c r="J197" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K197" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L197" t="n">
+        <v>700</v>
+      </c>
+      <c r="M197" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>904</v>
+      </c>
+      <c r="B198" t="n">
+        <v>309027</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Davidson</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>10</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>14</v>
+      </c>
+      <c r="I198" t="n">
+        <v>24</v>
+      </c>
+      <c r="J198" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K198" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="L198" t="n">
+        <v>650</v>
+      </c>
+      <c r="M198" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>904</v>
+      </c>
+      <c r="B199" t="n">
+        <v>309028</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>VMI</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>14</v>
+      </c>
+      <c r="F199" t="n">
+        <v>10</v>
+      </c>
+      <c r="G199" t="n">
+        <v>7</v>
+      </c>
+      <c r="H199" t="n">
+        <v>14</v>
+      </c>
+      <c r="I199" t="n">
+        <v>45</v>
+      </c>
+      <c r="J199" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K199" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L199" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="M199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>904</v>
+      </c>
+      <c r="B200" t="n">
+        <v>309029</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Howard</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>14</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>14</v>
+      </c>
+      <c r="J200" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K200" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>904</v>
+      </c>
+      <c r="B201" t="n">
+        <v>309030</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>13</v>
+      </c>
+      <c r="F201" t="n">
+        <v>10</v>
+      </c>
+      <c r="G201" t="n">
+        <v>15</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>38</v>
+      </c>
+      <c r="J201" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K201" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>904</v>
+      </c>
+      <c r="B202" t="n">
+        <v>309031</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>N.CarolinaA&amp;T</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>3</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>7</v>
+      </c>
+      <c r="H202" t="n">
+        <v>8</v>
+      </c>
+      <c r="I202" t="n">
+        <v>18</v>
+      </c>
+      <c r="J202" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K202" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L202" t="n">
+        <v>105</v>
+      </c>
+      <c r="M202" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>904</v>
+      </c>
+      <c r="B203" t="n">
+        <v>309032</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Furman</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>7</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3</v>
+      </c>
+      <c r="G203" t="n">
+        <v>13</v>
+      </c>
+      <c r="H203" t="n">
+        <v>6</v>
+      </c>
+      <c r="I203" t="n">
+        <v>29</v>
+      </c>
+      <c r="J203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L203" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>904</v>
+      </c>
+      <c r="B204" t="n">
+        <v>309033</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Wofford</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>3</v>
+      </c>
+      <c r="I204" t="n">
+        <v>24</v>
+      </c>
+      <c r="J204" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K204" t="n">
+        <v>6</v>
+      </c>
+      <c r="L204" t="n">
+        <v>-260</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>904</v>
+      </c>
+      <c r="B205" t="n">
+        <v>309034</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Elon</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>3</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10</v>
+      </c>
+      <c r="G205" t="n">
+        <v>9</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>22</v>
+      </c>
+      <c r="J205" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K205" t="n">
+        <v>50</v>
+      </c>
+      <c r="L205" t="n">
+        <v>220</v>
+      </c>
+      <c r="M205" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>904</v>
+      </c>
+      <c r="B206" t="n">
+        <v>309035</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>NorthDakota</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3</v>
+      </c>
+      <c r="G206" t="n">
+        <v>14</v>
+      </c>
+      <c r="H206" t="n">
+        <v>11</v>
+      </c>
+      <c r="I206" t="n">
+        <v>35</v>
+      </c>
+      <c r="J206" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K206" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L206" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M206" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>904</v>
+      </c>
+      <c r="B207" t="n">
+        <v>309036</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>IdahoSt</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>7</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>7</v>
+      </c>
+      <c r="I207" t="n">
+        <v>14</v>
+      </c>
+      <c r="J207" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K207" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="L207" t="n">
+        <v>330</v>
+      </c>
+      <c r="M207" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>904</v>
+      </c>
+      <c r="B208" t="n">
+        <v>309037</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Albany</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>6</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>6</v>
+      </c>
+      <c r="J208" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="K208" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1700</v>
+      </c>
+      <c r="M208" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>904</v>
+      </c>
+      <c r="B209" t="n">
+        <v>309038</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>NoDakotaState</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>7</v>
+      </c>
+      <c r="F209" t="n">
+        <v>7</v>
+      </c>
+      <c r="G209" t="n">
+        <v>7</v>
+      </c>
+      <c r="H209" t="n">
+        <v>7</v>
+      </c>
+      <c r="I209" t="n">
+        <v>28</v>
+      </c>
+      <c r="J209" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K209" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L209" t="n">
+        <v>-7000</v>
+      </c>
+      <c r="M209" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>904</v>
+      </c>
+      <c r="B210" t="n">
+        <v>309039</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Towson</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>6</v>
+      </c>
+      <c r="F210" t="n">
+        <v>11</v>
+      </c>
+      <c r="G210" t="n">
+        <v>7</v>
+      </c>
+      <c r="H210" t="n">
+        <v>7</v>
+      </c>
+      <c r="I210" t="n">
+        <v>31</v>
+      </c>
+      <c r="J210" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K210" t="n">
+        <v>24</v>
+      </c>
+      <c r="L210" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="M210" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>904</v>
+      </c>
+      <c r="B211" t="n">
+        <v>309040</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>MorganSt</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K211" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M211" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>904</v>
+      </c>
+      <c r="B212" t="n">
+        <v>309041</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>CalPoly</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>7</v>
+      </c>
+      <c r="F212" t="n">
+        <v>7</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>14</v>
+      </c>
+      <c r="I212" t="n">
+        <v>28</v>
+      </c>
+      <c r="J212" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K212" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L212" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M212" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>904</v>
+      </c>
+      <c r="B213" t="n">
+        <v>309042</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>SanDiego</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>7</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>3</v>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+      <c r="I213" t="n">
+        <v>17</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>904</v>
+      </c>
+      <c r="B214" t="n">
+        <v>309043</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>MoreheadSt</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>3</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>7</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>10</v>
+      </c>
+      <c r="J214" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K214" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>904</v>
+      </c>
+      <c r="B215" t="n">
+        <v>309044</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>JamesMadison</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>7</v>
+      </c>
+      <c r="F215" t="n">
+        <v>10</v>
+      </c>
+      <c r="G215" t="n">
+        <v>28</v>
+      </c>
+      <c r="H215" t="n">
+        <v>23</v>
+      </c>
+      <c r="I215" t="n">
+        <v>68</v>
+      </c>
+      <c r="J215" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K215" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>904</v>
+      </c>
+      <c r="B216" t="n">
+        <v>309045</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Bryant</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>7</v>
+      </c>
+      <c r="F216" t="n">
+        <v>7</v>
+      </c>
+      <c r="G216" t="n">
+        <v>7</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>21</v>
+      </c>
+      <c r="J216" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K216" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M216" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>904</v>
+      </c>
+      <c r="B217" t="n">
+        <v>309046</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>RhodeIsland</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>7</v>
+      </c>
+      <c r="F217" t="n">
+        <v>24</v>
+      </c>
+      <c r="G217" t="n">
+        <v>7</v>
+      </c>
+      <c r="H217" t="n">
+        <v>7</v>
+      </c>
+      <c r="I217" t="n">
+        <v>45</v>
+      </c>
+      <c r="J217" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K217" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L217" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="M217" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>904</v>
+      </c>
+      <c r="B218" t="n">
+        <v>309047</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Bucknell</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K218" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="L218" t="n">
+        <v>350</v>
+      </c>
+      <c r="M218" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>904</v>
+      </c>
+      <c r="B219" t="n">
+        <v>309048</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>SacredHeart</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>7</v>
+      </c>
+      <c r="G219" t="n">
+        <v>7</v>
+      </c>
+      <c r="H219" t="n">
+        <v>7</v>
+      </c>
+      <c r="I219" t="n">
+        <v>21</v>
+      </c>
+      <c r="J219" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K219" t="n">
+        <v>11</v>
+      </c>
+      <c r="L219" t="n">
+        <v>-420</v>
+      </c>
+      <c r="M219" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>904</v>
+      </c>
+      <c r="B220" t="n">
+        <v>309049</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>EasternKentucky</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>7</v>
+      </c>
+      <c r="F220" t="n">
+        <v>7</v>
+      </c>
+      <c r="G220" t="n">
+        <v>14</v>
+      </c>
+      <c r="H220" t="n">
+        <v>3</v>
+      </c>
+      <c r="I220" t="n">
+        <v>31</v>
+      </c>
+      <c r="J220" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K220" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L220" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M220" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>904</v>
+      </c>
+      <c r="B221" t="n">
+        <v>309050</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>WesternCarolina</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>6</v>
+      </c>
+      <c r="F221" t="n">
+        <v>7</v>
+      </c>
+      <c r="G221" t="n">
+        <v>7</v>
+      </c>
+      <c r="H221" t="n">
+        <v>8</v>
+      </c>
+      <c r="I221" t="n">
+        <v>28</v>
+      </c>
+      <c r="J221" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K221" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L221" t="n">
+        <v>330</v>
+      </c>
+      <c r="M221" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>904</v>
+      </c>
+      <c r="B222" t="n">
+        <v>309051</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>SoCarolinaSt</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>7</v>
+      </c>
+      <c r="F222" t="n">
+        <v>17</v>
+      </c>
+      <c r="G222" t="n">
+        <v>14</v>
+      </c>
+      <c r="H222" t="n">
+        <v>3</v>
+      </c>
+      <c r="I222" t="n">
+        <v>41</v>
+      </c>
+      <c r="J222" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K222" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L222" t="n">
+        <v>195</v>
+      </c>
+      <c r="M222" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>904</v>
+      </c>
+      <c r="B223" t="n">
+        <v>309052</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>AlabamaA&amp;M</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>14</v>
+      </c>
+      <c r="F223" t="n">
+        <v>7</v>
+      </c>
+      <c r="G223" t="n">
+        <v>14</v>
+      </c>
+      <c r="H223" t="n">
+        <v>7</v>
+      </c>
+      <c r="I223" t="n">
+        <v>42</v>
+      </c>
+      <c r="J223" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K223" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L223" t="n">
+        <v>-230</v>
+      </c>
+      <c r="M223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>904</v>
+      </c>
+      <c r="B224" t="n">
+        <v>309053</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>TarletonState</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>7</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>10</v>
+      </c>
+      <c r="J224" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K224" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L224" t="n">
+        <v>195</v>
+      </c>
+      <c r="M224" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>904</v>
+      </c>
+      <c r="B225" t="n">
+        <v>309054</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>StephenF.Austin</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>7</v>
+      </c>
+      <c r="G225" t="n">
+        <v>3</v>
+      </c>
+      <c r="H225" t="n">
+        <v>10</v>
+      </c>
+      <c r="I225" t="n">
+        <v>20</v>
+      </c>
+      <c r="J225" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K225" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L225" t="n">
+        <v>-230</v>
+      </c>
+      <c r="M225" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>904</v>
+      </c>
+      <c r="B226" t="n">
+        <v>309057</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>7</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>7</v>
+      </c>
+      <c r="J226" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K226" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>904</v>
+      </c>
+      <c r="B227" t="n">
+        <v>309058</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>IllinoisSt</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>7</v>
+      </c>
+      <c r="F227" t="n">
+        <v>14</v>
+      </c>
+      <c r="G227" t="n">
+        <v>21</v>
+      </c>
+      <c r="H227" t="n">
+        <v>7</v>
+      </c>
+      <c r="I227" t="n">
+        <v>49</v>
+      </c>
+      <c r="J227" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K227" t="n">
+        <v>44</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>904</v>
+      </c>
+      <c r="B228" t="n">
+        <v>309059</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>PrairieView</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>6</v>
+      </c>
+      <c r="F228" t="n">
+        <v>14</v>
+      </c>
+      <c r="G228" t="n">
+        <v>10</v>
+      </c>
+      <c r="H228" t="n">
+        <v>10</v>
+      </c>
+      <c r="I228" t="n">
+        <v>40</v>
+      </c>
+      <c r="J228" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K228" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L228" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M228" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>904</v>
+      </c>
+      <c r="B229" t="n">
+        <v>309060</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>TexasSouthern</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>3</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>7</v>
+      </c>
+      <c r="H229" t="n">
+        <v>7</v>
+      </c>
+      <c r="I229" t="n">
+        <v>17</v>
+      </c>
+      <c r="J229" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="K229" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L229" t="n">
+        <v>330</v>
+      </c>
+      <c r="M229" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>904</v>
+      </c>
+      <c r="B230" t="n">
+        <v>309061</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>SacramentoSt</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>3</v>
+      </c>
+      <c r="F230" t="n">
+        <v>9</v>
+      </c>
+      <c r="G230" t="n">
+        <v>7</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>19</v>
+      </c>
+      <c r="J230" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K230" t="n">
+        <v>18</v>
+      </c>
+      <c r="L230" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="M230" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>904</v>
+      </c>
+      <c r="B231" t="n">
+        <v>309062</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>DixieState</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>7</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>7</v>
+      </c>
+      <c r="J231" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="K231" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L231" t="n">
+        <v>650</v>
+      </c>
+      <c r="M231" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>904</v>
+      </c>
+      <c r="B232" t="n">
+        <v>309081</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>SELouisiana</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>7</v>
+      </c>
+      <c r="F232" t="n">
+        <v>7</v>
+      </c>
+      <c r="G232" t="n">
+        <v>13</v>
+      </c>
+      <c r="H232" t="n">
+        <v>22</v>
+      </c>
+      <c r="I232" t="n">
+        <v>49</v>
+      </c>
+      <c r="J232" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K232" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L232" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M232" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>904</v>
+      </c>
+      <c r="B233" t="n">
+        <v>309082</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>NorthAlabama</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>14</v>
+      </c>
+      <c r="G233" t="n">
+        <v>7</v>
+      </c>
+      <c r="H233" t="n">
+        <v>7</v>
+      </c>
+      <c r="I233" t="n">
+        <v>28</v>
+      </c>
+      <c r="J233" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K233" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="L233" t="n">
+        <v>330</v>
+      </c>
+      <c r="M233" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
+++ b/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
@@ -3538,10 +3538,8 @@
       <c r="I68" t="n">
         <v>28</v>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>7.5ev</t>
-        </is>
+      <c r="J68" t="n">
+        <v>7.5</v>
       </c>
       <c r="K68" t="n">
         <v>6.5</v>

--- a/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
+++ b/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
@@ -40828,10 +40828,8 @@
       <c r="I888" t="n">
         <v>55</v>
       </c>
-      <c r="J888" t="inlineStr">
-        <is>
-          <t>1..5</t>
-        </is>
+      <c r="J888" t="n">
+        <v>1.5</v>
       </c>
       <c r="K888" t="n">
         <v>1</v>

--- a/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
+++ b/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1157"/>
+  <dimension ref="A1:M1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52994,6 +52994,9586 @@
         <v>30</v>
       </c>
     </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>303</v>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E1158" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>-250</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>304</v>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>Tulane</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>60</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>210</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>305</v>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>CoastalCarolina</t>
+        </is>
+      </c>
+      <c r="E1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>52</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>20</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>306</v>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>ArkansasState</t>
+        </is>
+      </c>
+      <c r="E1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>307</v>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>Temple</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L1162" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1162" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>308</v>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>CincinnatiU</t>
+        </is>
+      </c>
+      <c r="E1163" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>52</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1163" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1163" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>309</v>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>310</v>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>FloridaIntl</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>61</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>140</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>311</v>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>Stanford</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>425</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>312</v>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>ArizonaState</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>-550</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>309101</v>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>MorganSt</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>210</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>309102</v>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>Howard</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>-250</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>313</v>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>FloridaState</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>314</v>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>NorthCarolina</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>-900</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>315</v>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>MichiganState</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>316</v>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>Rutgers</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>155</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>317</v>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>318</v>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>Massachusetts</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1175" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K1175" t="n">
+        <v>57</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>130</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>319</v>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>WakeForest</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>320</v>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>59</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>190</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>321</v>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>EastCarolina</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>65</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>320</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>322</v>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>CentralFlorida</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>-380</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>323</v>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>324</v>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>OhioState</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>66</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>325</v>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>Akron</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>475</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>326</v>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>BowlingGreen</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>-650</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>327</v>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>NoIllinois</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>328</v>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>Toledo</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>329</v>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>BuffaloU</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>66</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>220</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>330</v>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>KentState</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>7</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>-260</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>331</v>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>GeorgiaTech</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>332</v>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>Duke</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>165</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>333</v>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>BallState</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>55</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>375</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>334</v>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>WesternMichigan</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>-450</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>335</v>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>MiddleTennSt</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>59</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>336</v>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>Liberty</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>20</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>337</v>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>120</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>338</v>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>Louisville</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>339</v>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>175</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>340</v>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>AirForce</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>341</v>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>BoiseState</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>58</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>200</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>342</v>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>BYU</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>-240</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>343</v>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>OldDominion</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>344</v>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>21</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>-1600</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>345</v>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>SanJoseState</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>145</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>346</v>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>ColoradoState</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>347</v>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>130</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>348</v>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>349</v>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>OregonState</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>350</v>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>WashingtonState</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>59</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>165</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>351</v>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>SouthCarolina</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>330</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>352</v>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>TennesseeU</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>353</v>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>SMU</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>-550</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>354</v>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>57</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>425</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>355</v>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>TCU</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>52</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>356</v>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>TexasTech</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>110</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>357</v>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>-800</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>358</v>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>Auburn</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>550</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>359</v>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>110</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>360</v>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M1217" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>361</v>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>WestVirginia</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>100</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>362</v>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>Baylor</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>363</v>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>NorthTexas</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>69</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>364</v>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SouthAlabama</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>366</v>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TexasState</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>160</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>367</v>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>FloridaAtlantic</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>150</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>368</v>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>369</v>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>Vanderbilt</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>60</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>370</v>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>-45000</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>371</v>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>130</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>372</v>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>Tulsa</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>373</v>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GeorgiaState</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>55</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>374</v>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ULMonroe</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>450</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>375</v>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>-450</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>376</v>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>375</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>377</v>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MiamiOhio</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>378</v>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>EasternMichigan</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>130</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>379</v>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>Oklahoma</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>55</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>380</v>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>150</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>381</v>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>Michigan</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>382</v>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>115</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>383</v>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>GeorgiaSouthern</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>190</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>384</v>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>385</v>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr">
+        <is>
+          <t>CentralMichigan</t>
+        </is>
+      </c>
+      <c r="E1242" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>386</v>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1243" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="E1243" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>58</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>180</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>387</v>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1244" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="E1244" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>388</v>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>TexasA&amp;M</t>
+        </is>
+      </c>
+      <c r="E1245" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>389</v>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>Arkansas</t>
+        </is>
+      </c>
+      <c r="E1246" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>51</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>160</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>390</v>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>Mississippi</t>
+        </is>
+      </c>
+      <c r="E1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>52</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>391</v>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
+      </c>
+      <c r="E1248" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>392</v>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>SouthernMiss</t>
+        </is>
+      </c>
+      <c r="E1249" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1249" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K1249" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>105</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>393</v>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>TexSanAntonio</t>
+        </is>
+      </c>
+      <c r="E1250" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>52</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>71</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>140</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>394</v>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>WesternKentucky</t>
+        </is>
+      </c>
+      <c r="E1251" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>9</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>46</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>395</v>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>PennState</t>
+        </is>
+      </c>
+      <c r="E1252" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>125</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>396</v>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr">
+        <is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="E1253" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>-145</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>397</v>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>NotreDame</t>
+        </is>
+      </c>
+      <c r="E1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>11</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>398</v>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr">
+        <is>
+          <t>VirginiaTech</t>
+        </is>
+      </c>
+      <c r="E1255" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>399</v>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="E1256" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>16</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>-800</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>400</v>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="E1257" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>61</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>550</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>401</v>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>NewMexico</t>
+        </is>
+      </c>
+      <c r="E1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>402</v>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>SanDiegoState</t>
+        </is>
+      </c>
+      <c r="E1259" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>403</v>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>NewMexicoState</t>
+        </is>
+      </c>
+      <c r="E1260" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>65</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>404</v>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="E1261" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>55</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>-12000</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>309103</v>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>Elon</t>
+        </is>
+      </c>
+      <c r="E1262" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>309104</v>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="E1263" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>100</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>309105</v>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>SanDiego</t>
+        </is>
+      </c>
+      <c r="E1264" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>52</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>309106</v>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="E1265" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>234</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>309107</v>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="E1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>61</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>161</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>309108</v>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>Marist</t>
+        </is>
+      </c>
+      <c r="E1267" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>309109</v>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>Bryant</t>
+        </is>
+      </c>
+      <c r="E1268" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>48</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>48</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>450</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>309110</v>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>Duquesne</t>
+        </is>
+      </c>
+      <c r="E1269" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>9</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>309111</v>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>Colgate</t>
+        </is>
+      </c>
+      <c r="E1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>150</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>309112</v>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="E1271" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>309113</v>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>Bucknell</t>
+        </is>
+      </c>
+      <c r="E1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>309114</v>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>Lafayette</t>
+        </is>
+      </c>
+      <c r="E1273" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>-700</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>309115</v>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>Lehigh</t>
+        </is>
+      </c>
+      <c r="E1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>899</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>309116</v>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>Pennsylvania</t>
+        </is>
+      </c>
+      <c r="E1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>-1435</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>309117</v>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>NorthAlabama</t>
+        </is>
+      </c>
+      <c r="E1276" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>308</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>309118</v>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>N.CarolinaA&amp;T</t>
+        </is>
+      </c>
+      <c r="E1277" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>-380</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>309119</v>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>LongIsland</t>
+        </is>
+      </c>
+      <c r="E1278" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>48</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>48</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>398</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>309120</v>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>St.Francis(PA)</t>
+        </is>
+      </c>
+      <c r="E1279" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>55</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>-510</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>309121</v>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="E1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>130</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>309122</v>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>RhodeIsland</t>
+        </is>
+      </c>
+      <c r="E1281" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>309123</v>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E1282" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>-410</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>309124</v>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>CentralConn.</t>
+        </is>
+      </c>
+      <c r="E1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>322</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>309125</v>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>WesternIllinois</t>
+        </is>
+      </c>
+      <c r="E1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>-230</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>309126</v>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>IndianaSt</t>
+        </is>
+      </c>
+      <c r="E1285" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>190</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>309127</v>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>Dayton</t>
+        </is>
+      </c>
+      <c r="E1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>309128</v>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>Drake</t>
+        </is>
+      </c>
+      <c r="E1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>135</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>309129</v>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>Princeton</t>
+        </is>
+      </c>
+      <c r="E1288" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>309130</v>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>Monmouth</t>
+        </is>
+      </c>
+      <c r="E1289" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>140</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>309131</v>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>MoreheadSt</t>
+        </is>
+      </c>
+      <c r="E1290" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>309132</v>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>Presbyterian</t>
+        </is>
+      </c>
+      <c r="E1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>93</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>182</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>309133</v>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>SELouisiana</t>
+        </is>
+      </c>
+      <c r="E1292" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>58</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>73</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>100</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>309134</v>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>NichollsSt</t>
+        </is>
+      </c>
+      <c r="E1293" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>309135</v>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>Cornell</t>
+        </is>
+      </c>
+      <c r="E1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>1438</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>309136</v>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>Harvard</t>
+        </is>
+      </c>
+      <c r="E1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>24</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>-2860</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>309137</v>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>Wagner</t>
+        </is>
+      </c>
+      <c r="E1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>59</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>1477</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>309138</v>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>Fordham</t>
+        </is>
+      </c>
+      <c r="E1297" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>56</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>25</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>-3005</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>309139</v>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>Furman</t>
+        </is>
+      </c>
+      <c r="E1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="L1298" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1298" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>309140</v>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>Wofford</t>
+        </is>
+      </c>
+      <c r="E1299" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1299" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K1299" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="L1299" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1299" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>309141</v>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>Chattanooga</t>
+        </is>
+      </c>
+      <c r="E1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>-250</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>309142</v>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>VMI</t>
+        </is>
+      </c>
+      <c r="E1301" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>210</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>309143</v>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>Yale</t>
+        </is>
+      </c>
+      <c r="E1302" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>263</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>309144</v>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>Dartmouth</t>
+        </is>
+      </c>
+      <c r="E1303" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>-325</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>309145</v>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>TennesseeTech</t>
+        </is>
+      </c>
+      <c r="E1304" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>309146</v>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>NCCentral</t>
+        </is>
+      </c>
+      <c r="E1305" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>140</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>309147</v>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>NorthernIowa</t>
+        </is>
+      </c>
+      <c r="E1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>274</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>309148</v>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>NoDakotaState</t>
+        </is>
+      </c>
+      <c r="E1307" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>-340</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>309149</v>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>KennesawSt</t>
+        </is>
+      </c>
+      <c r="E1308" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>21</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>-1395</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>309150</v>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>Hampton</t>
+        </is>
+      </c>
+      <c r="E1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>66</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>875</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>309151</v>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>Valparaiso</t>
+        </is>
+      </c>
+      <c r="E1310" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>285</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>309152</v>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>St.Thomas-Minn</t>
+        </is>
+      </c>
+      <c r="E1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>-355</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>309153</v>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>Merrimack</t>
+        </is>
+      </c>
+      <c r="E1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>309154</v>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>SacredHeart</t>
+        </is>
+      </c>
+      <c r="E1313" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>145</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>309155</v>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>MissouriSt</t>
+        </is>
+      </c>
+      <c r="E1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>23</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>8</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>-285</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>309156</v>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>YoungstownSt</t>
+        </is>
+      </c>
+      <c r="E1315" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>237</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>309157</v>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>Villanova</t>
+        </is>
+      </c>
+      <c r="E1316" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>63</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>424</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>309158</v>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>JamesMadison</t>
+        </is>
+      </c>
+      <c r="E1317" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>-550</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>309159</v>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>Grambling</t>
+        </is>
+      </c>
+      <c r="E1318" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>319</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>309160</v>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>AlcornSt</t>
+        </is>
+      </c>
+      <c r="E1319" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>-395</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>309161</v>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>DixieState</t>
+        </is>
+      </c>
+      <c r="E1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="L1320" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1320" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>309162</v>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="E1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="L1321" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1321" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>309163</v>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>NorthDakota</t>
+        </is>
+      </c>
+      <c r="E1322" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>142</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>309164</v>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>SouthDakota</t>
+        </is>
+      </c>
+      <c r="E1323" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>309165</v>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>JacksonSt</t>
+        </is>
+      </c>
+      <c r="E1324" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>61</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>309166</v>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>AlabamaA&amp;M</t>
+        </is>
+      </c>
+      <c r="E1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>140</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>309167</v>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>ArkPineBluff</t>
+        </is>
+      </c>
+      <c r="E1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>12</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1326" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1326" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>309168</v>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>AlabamaSt</t>
+        </is>
+      </c>
+      <c r="E1327" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K1327" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="L1327" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1327" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>309169</v>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>Lamar</t>
+        </is>
+      </c>
+      <c r="E1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L1328" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1328" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>309170</v>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>SamHoustonSt</t>
+        </is>
+      </c>
+      <c r="E1329" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>37</v>
+      </c>
+      <c r="L1329" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1329" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>309171</v>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>SoIllinois</t>
+        </is>
+      </c>
+      <c r="E1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>452</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>309172</v>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>SouthDakotaSt</t>
+        </is>
+      </c>
+      <c r="E1331" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>309173</v>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>MurraySt</t>
+        </is>
+      </c>
+      <c r="E1332" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>123</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>309174</v>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>TennesseeMartin</t>
+        </is>
+      </c>
+      <c r="E1333" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>-145</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>309175</v>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>CharlestonSou</t>
+        </is>
+      </c>
+      <c r="E1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>-550</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>309176</v>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>RobertMorris</t>
+        </is>
+      </c>
+      <c r="E1335" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>424</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>309177</v>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>EastWashington</t>
+        </is>
+      </c>
+      <c r="E1336" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>63</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>-1240</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>309178</v>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>NO.Colorado</t>
+        </is>
+      </c>
+      <c r="E1337" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>770</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>309179</v>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>UCDavis</t>
+        </is>
+      </c>
+      <c r="E1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>-900</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>309180</v>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>IdahoSt</t>
+        </is>
+      </c>
+      <c r="E1339" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>309181</v>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>Mercer</t>
+        </is>
+      </c>
+      <c r="E1340" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>-770</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>309182</v>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>WesternCarolina</t>
+        </is>
+      </c>
+      <c r="E1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>536</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>309183</v>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>Albany</t>
+        </is>
+      </c>
+      <c r="E1342" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>240</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>309184</v>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>William&amp;Mary</t>
+        </is>
+      </c>
+      <c r="E1343" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>7</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>-290</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>309185</v>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>Miss.ValleySt</t>
+        </is>
+      </c>
+      <c r="E1344" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>59</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>386</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>309186</v>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>BethuneCookman</t>
+        </is>
+      </c>
+      <c r="E1345" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>309187</v>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>CalPoly</t>
+        </is>
+      </c>
+      <c r="E1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L1346" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1346" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>309188</v>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>MontanaSt</t>
+        </is>
+      </c>
+      <c r="E1347" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>29</v>
+      </c>
+      <c r="L1347" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1347" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>309189</v>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>StephenF.Austin</t>
+        </is>
+      </c>
+      <c r="E1348" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>-230</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>309190</v>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>JacksonvilleSt</t>
+        </is>
+      </c>
+      <c r="E1349" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>190</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>309191</v>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>StonyBrook</t>
+        </is>
+      </c>
+      <c r="E1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>205</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>309192</v>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>Towson</t>
+        </is>
+      </c>
+      <c r="E1351" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>-245</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>309193</v>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>SEMissouriSt</t>
+        </is>
+      </c>
+      <c r="E1352" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>234</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>309194</v>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>AustinPeay</t>
+        </is>
+      </c>
+      <c r="E1353" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>309195</v>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>TheCitadel</t>
+        </is>
+      </c>
+      <c r="E1354" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>364</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>309196</v>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>EastTennesseeSt</t>
+        </is>
+      </c>
+      <c r="E1355" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>-470</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>309197</v>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>PortlandSt</t>
+        </is>
+      </c>
+      <c r="E1356" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>54</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>170</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>309198</v>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="E1357" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>309199</v>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>Southern</t>
+        </is>
+      </c>
+      <c r="E1358" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>-445</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>309200</v>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>TexasSouthern</t>
+        </is>
+      </c>
+      <c r="E1359" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>347</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>309201</v>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="E1360" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>-335</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>309202</v>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>GardnerWebb</t>
+        </is>
+      </c>
+      <c r="E1361" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>67</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>269</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>309203</v>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>SoCarolinaSt</t>
+        </is>
+      </c>
+      <c r="E1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>167</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>309204</v>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>FloridaA&amp;M</t>
+        </is>
+      </c>
+      <c r="E1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>-195</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>309205</v>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>AbileneChristian</t>
+        </is>
+      </c>
+      <c r="E1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>162</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>309206</v>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>EasternKentucky</t>
+        </is>
+      </c>
+      <c r="E1365" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>-190</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>309207</v>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>NorthwesternSt</t>
+        </is>
+      </c>
+      <c r="E1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>309208</v>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>HoustonBaptist</t>
+        </is>
+      </c>
+      <c r="E1367" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>161</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>309209</v>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>SouthernUtah</t>
+        </is>
+      </c>
+      <c r="E1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="L1368" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1368" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>309210</v>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>CSSacramento</t>
+        </is>
+      </c>
+      <c r="E1369" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1369" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1369" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
+++ b/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1369"/>
+  <dimension ref="A1:M1583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62574,6 +62574,9646 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>107</v>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>AppalachianSt</t>
+        </is>
+      </c>
+      <c r="E1370" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>108</v>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>ULLafayette</t>
+        </is>
+      </c>
+      <c r="E1371" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>160</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>111</v>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>GeorgiaSouthern</t>
+        </is>
+      </c>
+      <c r="E1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>120</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>112</v>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>SouthAlabama</t>
+        </is>
+      </c>
+      <c r="E1373" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>113</v>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="E1374" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>55</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>340</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>114</v>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E1375" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>-410</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>115</v>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>Clemson</t>
+        </is>
+      </c>
+      <c r="E1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>116</v>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="E1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>450</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>117</v>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="E1378" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>49</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>118</v>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>NorthTexas</t>
+        </is>
+      </c>
+      <c r="E1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>64</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>66</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>330</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>119</v>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>SanDiegoState</t>
+        </is>
+      </c>
+      <c r="E1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>-350</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>120</v>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>SanJoseState</t>
+        </is>
+      </c>
+      <c r="E1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>290</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>121</v>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="E1382" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>122</v>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="E1383" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>309301</v>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>Colgate</t>
+        </is>
+      </c>
+      <c r="E1384" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>165</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>309302</v>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>Cornell</t>
+        </is>
+      </c>
+      <c r="E1385" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1385" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K1385" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>309303</v>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>MontanaSt</t>
+        </is>
+      </c>
+      <c r="E1386" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>100</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>309304</v>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>WeberSt</t>
+        </is>
+      </c>
+      <c r="E1387" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>123</v>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>BowlingGreen</t>
+        </is>
+      </c>
+      <c r="E1388" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>290</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>124</v>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>NoIllinois</t>
+        </is>
+      </c>
+      <c r="E1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>-350</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>125</v>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>MiamiFlorida</t>
+        </is>
+      </c>
+      <c r="E1390" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>250</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>126</v>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>NorthCarolina</t>
+        </is>
+      </c>
+      <c r="E1391" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>127</v>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>PittsburghU</t>
+        </is>
+      </c>
+      <c r="E1392" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>128</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>VirginiaTech</t>
+        </is>
+      </c>
+      <c r="E1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1393" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K1393" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>175</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>129</v>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>TexasTech</t>
+        </is>
+      </c>
+      <c r="E1394" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>18</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>130</v>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>Kansas</t>
+        </is>
+      </c>
+      <c r="E1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>650</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>131</v>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>MichiganState</t>
+        </is>
+      </c>
+      <c r="E1396" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>132</v>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E1397" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>145</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>133</v>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>Army</t>
+        </is>
+      </c>
+      <c r="E1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>450</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>134</v>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="E1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>135</v>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="E1400" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>260</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>136</v>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>BuffaloU</t>
+        </is>
+      </c>
+      <c r="E1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>-310</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>137</v>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>Vanderbilt</t>
+        </is>
+      </c>
+      <c r="E1402" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>138</v>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>SouthCarolina</t>
+        </is>
+      </c>
+      <c r="E1403" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>19</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>139</v>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>Tulsa</t>
+        </is>
+      </c>
+      <c r="E1404" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>12</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>140</v>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>SouthFlorida</t>
+        </is>
+      </c>
+      <c r="E1405" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>240</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>141</v>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>NCState</t>
+        </is>
+      </c>
+      <c r="E1406" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>142</v>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>BostonCollege</t>
+        </is>
+      </c>
+      <c r="E1407" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>135</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>143</v>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="E1408" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>144</v>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>MinnesotaU</t>
+        </is>
+      </c>
+      <c r="E1409" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>9</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>47</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>165</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>145</v>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>Akron</t>
+        </is>
+      </c>
+      <c r="E1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>750</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>146</v>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>MiamiOhio</t>
+        </is>
+      </c>
+      <c r="E1411" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>20</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>147</v>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>CentralFlorida</t>
+        </is>
+      </c>
+      <c r="E1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>56</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>148</v>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>CincinnatiU</t>
+        </is>
+      </c>
+      <c r="E1413" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>56</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>-1600</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>149</v>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>Duke</t>
+        </is>
+      </c>
+      <c r="E1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>330</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>150</v>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="E1415" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>151</v>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>Rutgers</t>
+        </is>
+      </c>
+      <c r="E1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>152</v>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>Northwestern</t>
+        </is>
+      </c>
+      <c r="E1417" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1417" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K1417" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>110</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>153</v>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>BallState</t>
+        </is>
+      </c>
+      <c r="E1418" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>154</v>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>EasternMichigan</t>
+        </is>
+      </c>
+      <c r="E1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>105</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>155</v>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>ColoradoState</t>
+        </is>
+      </c>
+      <c r="E1420" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>156</v>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>NewMexico</t>
+        </is>
+      </c>
+      <c r="E1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>157</v>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="E1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>200</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>158</v>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="E1423" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>-240</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>159</v>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>AirForce</t>
+        </is>
+      </c>
+      <c r="E1424" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>52</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>140</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>160</v>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>BoiseState</t>
+        </is>
+      </c>
+      <c r="E1425" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>161</v>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>ArizonaState</t>
+        </is>
+      </c>
+      <c r="E1426" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>105</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>162</v>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E1427" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>163</v>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>FresnoState</t>
+        </is>
+      </c>
+      <c r="E1428" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>164</v>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="E1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>140</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>165</v>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="E1430" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>105</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>166</v>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E1431" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>167</v>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>Liberty</t>
+        </is>
+      </c>
+      <c r="E1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>32</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>-9000</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>168</v>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>ULMonroe</t>
+        </is>
+      </c>
+      <c r="E1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>53</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>169</v>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>BYU</t>
+        </is>
+      </c>
+      <c r="E1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>190</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>170</v>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>Baylor</t>
+        </is>
+      </c>
+      <c r="E1435" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>171</v>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>TexasA&amp;M</t>
+        </is>
+      </c>
+      <c r="E1436" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>-420</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>172</v>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
+      <c r="E1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>350</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>173</v>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>OklahomaState</t>
+        </is>
+      </c>
+      <c r="E1438" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>61</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>145</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>174</v>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="E1439" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>175</v>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>TCU</t>
+        </is>
+      </c>
+      <c r="E1440" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>385</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>176</v>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>Oklahoma</t>
+        </is>
+      </c>
+      <c r="E1441" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>52</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>-470</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>177</v>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>Toledo</t>
+        </is>
+      </c>
+      <c r="E1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>178</v>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>CentralMichigan</t>
+        </is>
+      </c>
+      <c r="E1443" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>175</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>179</v>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
+      </c>
+      <c r="E1444" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>17</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>-800</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>180</v>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>SouthernMiss</t>
+        </is>
+      </c>
+      <c r="E1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>43</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>550</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>181</v>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>Purdue</t>
+        </is>
+      </c>
+      <c r="E1446" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>360</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>182</v>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="E1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>-430</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>183</v>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="E1448" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>49</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>17</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>184</v>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>MississippiState</t>
+        </is>
+      </c>
+      <c r="E1449" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>650</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>185</v>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>KentState</t>
+        </is>
+      </c>
+      <c r="E1450" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>215</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>186</v>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>WesternMichigan</t>
+        </is>
+      </c>
+      <c r="E1451" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>64</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>7</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>-255</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>187</v>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>WesternKentucky</t>
+        </is>
+      </c>
+      <c r="E1452" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>43</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>188</v>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>OldDominion</t>
+        </is>
+      </c>
+      <c r="E1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>69</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>189</v>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="E1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>190</v>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>191</v>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="E1456" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>-450</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>192</v>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="E1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>49</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>61</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>375</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>193</v>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>Mississippi</t>
+        </is>
+      </c>
+      <c r="E1458" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>194</v>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>TennesseeU</t>
+        </is>
+      </c>
+      <c r="E1459" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>82</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>195</v>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="E1460" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>196</v>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>TexasState</t>
+        </is>
+      </c>
+      <c r="E1461" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>49</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>240</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>197</v>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>IowaState</t>
+        </is>
+      </c>
+      <c r="E1462" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>-260</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>198</v>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>KansasState</t>
+        </is>
+      </c>
+      <c r="E1463" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>220</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>199</v>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>Auburn</t>
+        </is>
+      </c>
+      <c r="E1464" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>155</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>200</v>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>Arkansas</t>
+        </is>
+      </c>
+      <c r="E1465" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>201</v>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="E1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>202</v>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>TexSanAntonio</t>
+        </is>
+      </c>
+      <c r="E1467" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>17</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>-900</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>203</v>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>UtahState</t>
+        </is>
+      </c>
+      <c r="E1468" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>204</v>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>UNLV</t>
+        </is>
+      </c>
+      <c r="E1469" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>64</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>250</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>205</v>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>LouisianaTech</t>
+        </is>
+      </c>
+      <c r="E1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>-265</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>206</v>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
+      </c>
+      <c r="E1471" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>55</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>225</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>207</v>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>Stanford</t>
+        </is>
+      </c>
+      <c r="E1472" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>208</v>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>WashingtonState</t>
+        </is>
+      </c>
+      <c r="E1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M1473" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>209</v>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="E1474" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>62</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>450</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>210</v>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="E1475" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>309305</v>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>Yale</t>
+        </is>
+      </c>
+      <c r="E1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>309306</v>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
+        </is>
+      </c>
+      <c r="E1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>130</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>309307</v>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>St.Francis(PA)</t>
+        </is>
+      </c>
+      <c r="E1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>105</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>309308</v>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>Bryant</t>
+        </is>
+      </c>
+      <c r="E1479" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>309309</v>
+      </c>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>Merrimack</t>
+        </is>
+      </c>
+      <c r="E1480" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>43</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>-425</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>309310</v>
+      </c>
+      <c r="C1481" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>LongIsland</t>
+        </is>
+      </c>
+      <c r="E1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>333</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>309311</v>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>NichollsSt</t>
+        </is>
+      </c>
+      <c r="E1482" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>76</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>100</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>309312</v>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>IncarnateWord</t>
+        </is>
+      </c>
+      <c r="E1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>309313</v>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>William&amp;Mary</t>
+        </is>
+      </c>
+      <c r="E1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>309314</v>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="E1485" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>53</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>234</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>309315</v>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>Princeton</t>
+        </is>
+      </c>
+      <c r="E1486" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>56</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>-1350</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>309316</v>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="E1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>58</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>850</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>309317</v>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>PrairieView</t>
+        </is>
+      </c>
+      <c r="E1488" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>-350</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>309318</v>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>BethuneCookman</t>
+        </is>
+      </c>
+      <c r="E1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>280</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>309319</v>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>St.Thomas-Minn</t>
+        </is>
+      </c>
+      <c r="E1490" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>-435</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>309320</v>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="E1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>343</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>309321</v>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>Marist</t>
+        </is>
+      </c>
+      <c r="E1492" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>243</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>309322</v>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>Dayton</t>
+        </is>
+      </c>
+      <c r="E1493" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>8</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>-295</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>309323</v>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>Bucknell</t>
+        </is>
+      </c>
+      <c r="E1494" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>1362</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>309324</v>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>Fordham</t>
+        </is>
+      </c>
+      <c r="E1495" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>66</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>-2770</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>309325</v>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>SouthDakotaSt</t>
+        </is>
+      </c>
+      <c r="E1496" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>24</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>-2185</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>309326</v>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>WesternIllinois</t>
+        </is>
+      </c>
+      <c r="E1497" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>70</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>1227</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>309327</v>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>Dartmouth</t>
+        </is>
+      </c>
+      <c r="E1498" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>100</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>309328</v>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>NewHampshire</t>
+        </is>
+      </c>
+      <c r="E1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1499" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K1499" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>309329</v>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>Lafayette</t>
+        </is>
+      </c>
+      <c r="E1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>720</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>309330</v>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>Harvard</t>
+        </is>
+      </c>
+      <c r="E1501" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>-1130</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>309331</v>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>CentralConn.</t>
+        </is>
+      </c>
+      <c r="E1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>315</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>309332</v>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>SacredHeart</t>
+        </is>
+      </c>
+      <c r="E1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>-385</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>309333</v>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>Monmouth</t>
+        </is>
+      </c>
+      <c r="E1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>-101</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>309334</v>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="E1505" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>309335</v>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>Samford</t>
+        </is>
+      </c>
+      <c r="E1506" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>309336</v>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>Wofford</t>
+        </is>
+      </c>
+      <c r="E1507" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>72</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>170</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>309337</v>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>MorganSt</t>
+        </is>
+      </c>
+      <c r="E1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>799</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>309338</v>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>SoCarolinaSt</t>
+        </is>
+      </c>
+      <c r="E1509" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>-1275</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>309339</v>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>Georgetown</t>
+        </is>
+      </c>
+      <c r="E1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>51</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>1119</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>309340</v>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>HolyCross</t>
+        </is>
+      </c>
+      <c r="E1511" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>-1795</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>309341</v>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>EastTennesseeSt</t>
+        </is>
+      </c>
+      <c r="E1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>309342</v>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>Chattanooga</t>
+        </is>
+      </c>
+      <c r="E1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>51</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>105</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>309343</v>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>Pennsylvania</t>
+        </is>
+      </c>
+      <c r="E1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>115</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>309344</v>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E1515" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>-135</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>309345</v>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>JamesMadison</t>
+        </is>
+      </c>
+      <c r="E1516" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>-700</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>309346</v>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="E1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>309347</v>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>FloridaA&amp;M</t>
+        </is>
+      </c>
+      <c r="E1518" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>19</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>309348</v>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>AlabamaA&amp;M</t>
+        </is>
+      </c>
+      <c r="E1519" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>234</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>309349</v>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="E1520" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>676</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>309350</v>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>EastWashington</t>
+        </is>
+      </c>
+      <c r="E1521" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>71</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>-1050</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>309351</v>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>Southern</t>
+        </is>
+      </c>
+      <c r="E1522" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>309352</v>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>ArkPineBluff</t>
+        </is>
+      </c>
+      <c r="E1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>110</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>309353</v>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>TexasSouthern</t>
+        </is>
+      </c>
+      <c r="E1524" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>310</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>309354</v>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>Grambling</t>
+        </is>
+      </c>
+      <c r="E1525" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>-380</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>309355</v>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>MurraySt</t>
+        </is>
+      </c>
+      <c r="E1526" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>309356</v>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>SEMissouriSt</t>
+        </is>
+      </c>
+      <c r="E1527" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>309357</v>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>NoDakotaState</t>
+        </is>
+      </c>
+      <c r="E1528" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>-1245</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>309358</v>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>IllinoisSt</t>
+        </is>
+      </c>
+      <c r="E1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>44</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>783</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>309359</v>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>AlabamaSt</t>
+        </is>
+      </c>
+      <c r="E1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>601</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>309360</v>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>JacksonSt</t>
+        </is>
+      </c>
+      <c r="E1531" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>17</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>-905</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>309361</v>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="E1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>548</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>309362</v>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>MoreheadSt</t>
+        </is>
+      </c>
+      <c r="E1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>16</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>-800</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>309363</v>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>NorthDakota</t>
+        </is>
+      </c>
+      <c r="E1534" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>285</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>309364</v>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>SoIllinois</t>
+        </is>
+      </c>
+      <c r="E1535" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>-355</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>309365</v>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>IndianaSt</t>
+        </is>
+      </c>
+      <c r="E1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>54</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>537</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>309366</v>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>MissouriSt</t>
+        </is>
+      </c>
+      <c r="E1537" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>-775</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>309367</v>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>CSSacramento</t>
+        </is>
+      </c>
+      <c r="E1538" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>41</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>383</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>309368</v>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="E1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>-495</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>309369</v>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>TennesseeMartin</t>
+        </is>
+      </c>
+      <c r="E1540" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>-435</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>309370</v>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>EasternIllinois</t>
+        </is>
+      </c>
+      <c r="E1541" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>343</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>309371</v>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>TennesseeTech</t>
+        </is>
+      </c>
+      <c r="E1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>110</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>309372</v>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>TennesseeSt</t>
+        </is>
+      </c>
+      <c r="E1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>309373</v>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>Villanova</t>
+        </is>
+      </c>
+      <c r="E1544" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>-535</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>309374</v>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>Albany</t>
+        </is>
+      </c>
+      <c r="E1545" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>419</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>309375</v>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="E1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>-215</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>309376</v>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>StonyBrook</t>
+        </is>
+      </c>
+      <c r="E1547" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>177</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>309377</v>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>AlcornSt</t>
+        </is>
+      </c>
+      <c r="E1548" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>-445</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>309378</v>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>Miss.ValleySt</t>
+        </is>
+      </c>
+      <c r="E1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>349</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>309379</v>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>VMI</t>
+        </is>
+      </c>
+      <c r="E1550" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>272</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>309380</v>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>Mercer</t>
+        </is>
+      </c>
+      <c r="E1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>-340</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>309381</v>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>Lamar</t>
+        </is>
+      </c>
+      <c r="E1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>526</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>309382</v>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>AbileneChristian</t>
+        </is>
+      </c>
+      <c r="E1553" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>16</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>-750</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>309383</v>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>SouthernUtah</t>
+        </is>
+      </c>
+      <c r="E1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>290</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>309384</v>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>NorthernArizona</t>
+        </is>
+      </c>
+      <c r="E1555" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>59</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>-360</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>309385</v>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>RhodeIsland</t>
+        </is>
+      </c>
+      <c r="E1556" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>309386</v>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>Towson</t>
+        </is>
+      </c>
+      <c r="E1557" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>110</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>309387</v>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>McNeeseSt</t>
+        </is>
+      </c>
+      <c r="E1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>309388</v>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>NorthwesternSt</t>
+        </is>
+      </c>
+      <c r="E1559" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>150</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>309389</v>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>SouthDakota</t>
+        </is>
+      </c>
+      <c r="E1560" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>282</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>309390</v>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>NorthernIowa</t>
+        </is>
+      </c>
+      <c r="E1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>-350</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>309391</v>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>EasternKentucky</t>
+        </is>
+      </c>
+      <c r="E1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>234</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>309392</v>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>CentralArkansas</t>
+        </is>
+      </c>
+      <c r="E1563" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>-280</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>309393</v>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>Drake</t>
+        </is>
+      </c>
+      <c r="E1564" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>275</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>309394</v>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>SanDiego</t>
+        </is>
+      </c>
+      <c r="E1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>-345</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>309395</v>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>HoustonBaptist</t>
+        </is>
+      </c>
+      <c r="E1566" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>309396</v>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>SELouisiana</t>
+        </is>
+      </c>
+      <c r="E1567" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>61</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>32</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>-10015</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>309397</v>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>N.CarolinaA&amp;T</t>
+        </is>
+      </c>
+      <c r="E1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>55</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>336</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>309398</v>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>KennesawSt</t>
+        </is>
+      </c>
+      <c r="E1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>-420</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>309399</v>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>IdahoSt</t>
+        </is>
+      </c>
+      <c r="E1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>58</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>161</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>309400</v>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>PortlandSt</t>
+        </is>
+      </c>
+      <c r="E1571" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>309401</v>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>TheCitadel</t>
+        </is>
+      </c>
+      <c r="E1572" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>318</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>309402</v>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>Furman</t>
+        </is>
+      </c>
+      <c r="E1573" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>-390</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>309403</v>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>Hampton</t>
+        </is>
+      </c>
+      <c r="E1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>530</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>309404</v>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>CharlestonSou</t>
+        </is>
+      </c>
+      <c r="E1575" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>-760</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>309405</v>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>Presbyterian</t>
+        </is>
+      </c>
+      <c r="E1576" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>630</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>309406</v>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>Davidson</t>
+        </is>
+      </c>
+      <c r="E1577" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>70</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>-960</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>309407</v>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>RobertMorris</t>
+        </is>
+      </c>
+      <c r="E1578" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>318</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>309408</v>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>NorthAlabama</t>
+        </is>
+      </c>
+      <c r="E1579" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>309409</v>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>NO.Colorado</t>
+        </is>
+      </c>
+      <c r="E1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>949</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>309410</v>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>UCDavis</t>
+        </is>
+      </c>
+      <c r="E1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>-1505</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>309411</v>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>TarletonState</t>
+        </is>
+      </c>
+      <c r="E1582" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>105</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>309412</v>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>DixieState</t>
+        </is>
+      </c>
+      <c r="E1583" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
+++ b/Data/Odds/NCAAF/ncaa football 2021-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1583"/>
+  <dimension ref="A1:M1803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72214,6 +72214,9906 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="1584">
+      <c r="A1584" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>307</v>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>CoastalCarolina</t>
+        </is>
+      </c>
+      <c r="E1584" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>308</v>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>AppalachianSt</t>
+        </is>
+      </c>
+      <c r="E1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>61</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>165</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>311</v>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>Tulane</t>
+        </is>
+      </c>
+      <c r="E1586" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>395</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>312</v>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>SMU</t>
+        </is>
+      </c>
+      <c r="E1587" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>55</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>-490</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>313</v>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>ULLafayette</t>
+        </is>
+      </c>
+      <c r="E1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>18</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>-900</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>314</v>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>ArkansasState</t>
+        </is>
+      </c>
+      <c r="E1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>70</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>315</v>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>FloridaAtlantic</t>
+        </is>
+      </c>
+      <c r="E1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>-250</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>316</v>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="E1591" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>58</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>210</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>411</v>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>SanJoseState</t>
+        </is>
+      </c>
+      <c r="E1592" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>412</v>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>UNLV</t>
+        </is>
+      </c>
+      <c r="E1593" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>190</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>317</v>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>MiddleTennSt</t>
+        </is>
+      </c>
+      <c r="E1594" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>-650</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>318</v>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
+        </is>
+      </c>
+      <c r="E1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>475</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>319</v>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="E1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>100</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>320</v>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>CentralFlorida</t>
+        </is>
+      </c>
+      <c r="E1597" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>-120</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>321</v>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>ColoradoState</t>
+        </is>
+      </c>
+      <c r="E1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>322</v>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>UtahState</t>
+        </is>
+      </c>
+      <c r="E1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>20</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1599" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K1599" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>130</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>323</v>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="E1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>17</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>-800</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>324</v>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="E1601" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>550</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>308901</v>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E1602" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="L1602" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1602" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>308902</v>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>Dartmouth</t>
+        </is>
+      </c>
+      <c r="E1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L1603" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1603" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>325</v>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>WesternMichigan</t>
+        </is>
+      </c>
+      <c r="E1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>326</v>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>Toledo</t>
+        </is>
+      </c>
+      <c r="E1605" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>105</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>327</v>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>Massachusetts</t>
+        </is>
+      </c>
+      <c r="E1606" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>59</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>328</v>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>FloridaState</t>
+        </is>
+      </c>
+      <c r="E1607" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>59</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>35</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>-24000</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>329</v>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>TexasState</t>
+        </is>
+      </c>
+      <c r="E1608" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>58</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>330</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>330</v>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>GeorgiaState</t>
+        </is>
+      </c>
+      <c r="E1609" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>-400</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>331</v>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>OhioState</t>
+        </is>
+      </c>
+      <c r="E1610" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>54</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>-1300</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>332</v>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="E1611" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>59</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>775</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>333</v>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>BuffaloU</t>
+        </is>
+      </c>
+      <c r="E1612" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>334</v>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>Akron</t>
+        </is>
+      </c>
+      <c r="E1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>335</v>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="E1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>336</v>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>PennState</t>
+        </is>
+      </c>
+      <c r="E1615" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>-3500</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>337</v>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>GeorgiaTech</t>
+        </is>
+      </c>
+      <c r="E1616" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>210</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>338</v>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="E1617" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>-250</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>339</v>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>BostonCollege</t>
+        </is>
+      </c>
+      <c r="E1618" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>165</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>340</v>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>Louisville</t>
+        </is>
+      </c>
+      <c r="E1619" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>341</v>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="E1620" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>150</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>342</v>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>VirginiaTech</t>
+        </is>
+      </c>
+      <c r="E1621" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>343</v>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>Clemson</t>
+        </is>
+      </c>
+      <c r="E1622" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>145</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>344</v>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>PittsburghU</t>
+        </is>
+      </c>
+      <c r="E1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>345</v>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="E1624" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>155</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>346</v>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>MinnesotaU</t>
+        </is>
+      </c>
+      <c r="E1625" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>347</v>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>Northwestern</t>
+        </is>
+      </c>
+      <c r="E1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>348</v>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>Michigan</t>
+        </is>
+      </c>
+      <c r="E1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>-3500</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>349</v>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>NoIllinois</t>
+        </is>
+      </c>
+      <c r="E1628" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>39</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>58</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>195</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>350</v>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>CentralMichigan</t>
+        </is>
+      </c>
+      <c r="E1629" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>-230</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>351</v>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>KentState</t>
+        </is>
+      </c>
+      <c r="E1630" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>352</v>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="E1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>175</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>353</v>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>CincinnatiU</t>
+        </is>
+      </c>
+      <c r="E1632" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>29</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>-8000</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>354</v>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="E1633" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>355</v>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>NCState</t>
+        </is>
+      </c>
+      <c r="E1634" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>356</v>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>MiamiFlorida</t>
+        </is>
+      </c>
+      <c r="E1635" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>155</v>
+      </c>
+      <c r="M1635" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>357</v>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>WakeForest</t>
+        </is>
+      </c>
+      <c r="E1636" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>70</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>-160</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>358</v>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>Army</t>
+        </is>
+      </c>
+      <c r="E1637" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>56</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>140</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>359</v>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>Temple</t>
+        </is>
+      </c>
+      <c r="E1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>105</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>360</v>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>SouthFlorida</t>
+        </is>
+      </c>
+      <c r="E1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>-125</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>361</v>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>EasternMichigan</t>
+        </is>
+      </c>
+      <c r="E1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>55</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>362</v>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>BowlingGreen</t>
+        </is>
+      </c>
+      <c r="E1641" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>160</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>363</v>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>EastCarolina</t>
+        </is>
+      </c>
+      <c r="E1642" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>425</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>364</v>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E1643" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>-550</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>Oklahoma</t>
+        </is>
+      </c>
+      <c r="E1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>37</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>366</v>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>Kansas</t>
+        </is>
+      </c>
+      <c r="E1645" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>367</v>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>MiamiOhio</t>
+        </is>
+      </c>
+      <c r="E1646" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>150</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>368</v>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>BallState</t>
+        </is>
+      </c>
+      <c r="E1647" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>369</v>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>NewMexico</t>
+        </is>
+      </c>
+      <c r="E1648" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>370</v>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="E1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>371</v>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="E1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>44</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>260</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>372</v>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="E1651" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>-310</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>373</v>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="E1652" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>374</v>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>OregonState</t>
+        </is>
+      </c>
+      <c r="E1653" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>135</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>375</v>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>BYU</t>
+        </is>
+      </c>
+      <c r="E1654" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>376</v>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>WashingtonState</t>
+        </is>
+      </c>
+      <c r="E1655" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>155</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>377</v>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="E1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>378</v>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="E1657" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>379</v>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>KansasState</t>
+        </is>
+      </c>
+      <c r="E1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>380</v>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>TexasTech</t>
+        </is>
+      </c>
+      <c r="E1659" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>-110</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>381</v>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>WestVirginia</t>
+        </is>
+      </c>
+      <c r="E1660" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>58</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>170</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>382</v>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>TCU</t>
+        </is>
+      </c>
+      <c r="E1661" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>-190</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>383</v>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>OklahomaState</t>
+        </is>
+      </c>
+      <c r="E1662" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>45</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>47</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>230</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>384</v>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>IowaState</t>
+        </is>
+      </c>
+      <c r="E1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>-270</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>385</v>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="E1664" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>386</v>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
+      </c>
+      <c r="E1665" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>24</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>387</v>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>TennesseeU</t>
+        </is>
+      </c>
+      <c r="E1666" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>68</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>388</v>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="E1667" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>52</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>389</v>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>SouthCarolina</t>
+        </is>
+      </c>
+      <c r="E1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>390</v>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>TexasA&amp;M</t>
+        </is>
+      </c>
+      <c r="E1669" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>19</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>-1600</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>391</v>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>MississippiState</t>
+        </is>
+      </c>
+      <c r="E1670" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>-1600</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>392</v>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>Vanderbilt</t>
+        </is>
+      </c>
+      <c r="E1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>393</v>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="E1672" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>394</v>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>Purdue</t>
+        </is>
+      </c>
+      <c r="E1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>135</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>395</v>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="E1674" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>280</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>396</v>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>Mississippi</t>
+        </is>
+      </c>
+      <c r="E1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>-340</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>397</v>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>SouthAlabama</t>
+        </is>
+      </c>
+      <c r="E1676" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>-550</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>398</v>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>ULMonroe</t>
+        </is>
+      </c>
+      <c r="E1677" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>41</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>425</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>399</v>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>Liberty</t>
+        </is>
+      </c>
+      <c r="E1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>-1600</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>400</v>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>NorthTexas</t>
+        </is>
+      </c>
+      <c r="E1679" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>61</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>401</v>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>TexSanAntonio</t>
+        </is>
+      </c>
+      <c r="E1680" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>402</v>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>LouisianaTech</t>
+        </is>
+      </c>
+      <c r="E1681" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>180</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>403</v>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>WesternKentucky</t>
+        </is>
+      </c>
+      <c r="E1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>-750</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>404</v>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>FloridaIntl</t>
+        </is>
+      </c>
+      <c r="E1683" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>78</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>525</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>405</v>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>SanDiegoState</t>
+        </is>
+      </c>
+      <c r="E1684" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>155</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>406</v>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>AirForce</t>
+        </is>
+      </c>
+      <c r="E1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>407</v>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="E1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>250</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>408</v>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>NotreDame</t>
+        </is>
+      </c>
+      <c r="E1687" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>8</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>409</v>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="E1688" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>16</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>32</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>150</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>410</v>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>FresnoState</t>
+        </is>
+      </c>
+      <c r="E1689" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>413</v>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>NewMexicoState</t>
+        </is>
+      </c>
+      <c r="E1690" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>64</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>414</v>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="E1691" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>19</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>421</v>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>ArkPineBluff</t>
+        </is>
+      </c>
+      <c r="E1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>59</v>
+      </c>
+      <c r="L1692" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1692" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>422</v>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>Arkansas</t>
+        </is>
+      </c>
+      <c r="E1693" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L1693" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1693" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>308903</v>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>LongIsland</t>
+        </is>
+      </c>
+      <c r="E1694" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>386</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>308904</v>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>CentralConn.</t>
+        </is>
+      </c>
+      <c r="E1695" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>308905</v>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>MoreheadSt</t>
+        </is>
+      </c>
+      <c r="E1696" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>-170</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>308906</v>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>Marist</t>
+        </is>
+      </c>
+      <c r="E1697" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>150</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>308907</v>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>Bryant</t>
+        </is>
+      </c>
+      <c r="E1698" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>308908</v>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>Wagner</t>
+        </is>
+      </c>
+      <c r="E1699" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>386</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>308909</v>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>Pennsylvania</t>
+        </is>
+      </c>
+      <c r="E1700" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>474</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>308910</v>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>Yale</t>
+        </is>
+      </c>
+      <c r="E1701" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>-650</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>308911</v>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>Duquesne</t>
+        </is>
+      </c>
+      <c r="E1702" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>-205</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>308912</v>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>SacredHeart</t>
+        </is>
+      </c>
+      <c r="E1703" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>171</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>308913</v>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>Davidson</t>
+        </is>
+      </c>
+      <c r="E1704" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>49</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>308914</v>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="E1705" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>648</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>308915</v>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1706" t="inlineStr">
+        <is>
+          <t>Chattanooga</t>
+        </is>
+      </c>
+      <c r="E1706" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>55</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>308916</v>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1707" t="inlineStr">
+        <is>
+          <t>Samford</t>
+        </is>
+      </c>
+      <c r="E1707" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>64</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>64</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>130</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>308917</v>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1708" t="inlineStr">
+        <is>
+          <t>Dayton</t>
+        </is>
+      </c>
+      <c r="E1708" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>308918</v>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1709" t="inlineStr">
+        <is>
+          <t>Valparaiso</t>
+        </is>
+      </c>
+      <c r="E1709" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>170</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>308919</v>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1710" t="inlineStr">
+        <is>
+          <t>YoungstownSt</t>
+        </is>
+      </c>
+      <c r="E1710" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>308920</v>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>IndianaSt</t>
+        </is>
+      </c>
+      <c r="E1711" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>155</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>308921</v>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1712" t="inlineStr">
+        <is>
+          <t>Lehigh</t>
+        </is>
+      </c>
+      <c r="E1712" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L1712" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1712" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>308922</v>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1713" t="inlineStr">
+        <is>
+          <t>Fordham</t>
+        </is>
+      </c>
+      <c r="E1713" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="L1713" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1713" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>308923</v>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>Georgetown</t>
+        </is>
+      </c>
+      <c r="E1714" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>-155</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>308924</v>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>Bucknell</t>
+        </is>
+      </c>
+      <c r="E1715" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>135</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>308925</v>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>NCCentral</t>
+        </is>
+      </c>
+      <c r="E1716" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>-200</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>308926</v>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>MorganSt</t>
+        </is>
+      </c>
+      <c r="E1717" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>170</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>308927</v>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="E1718" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>49</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>161</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>308928</v>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>Cornell</t>
+        </is>
+      </c>
+      <c r="E1719" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>308929</v>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>SanDiego</t>
+        </is>
+      </c>
+      <c r="E1720" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>26</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>69</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>-550</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>308930</v>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>Presbyterian</t>
+        </is>
+      </c>
+      <c r="E1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>83</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>424</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>308931</v>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="E1722" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>240</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>308932</v>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t>Albany</t>
+        </is>
+      </c>
+      <c r="E1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>-290</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>308933</v>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1724" t="inlineStr">
+        <is>
+          <t>NorfolkSt</t>
+        </is>
+      </c>
+      <c r="E1724" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>-270</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>308934</v>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>Howard</t>
+        </is>
+      </c>
+      <c r="E1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>21</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>61</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>224</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>308935</v>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1726" t="inlineStr">
+        <is>
+          <t>NewHampshire</t>
+        </is>
+      </c>
+      <c r="E1726" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>48</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>110</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>308936</v>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1727" t="inlineStr">
+        <is>
+          <t>Elon</t>
+        </is>
+      </c>
+      <c r="E1727" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>308937</v>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1728" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="E1728" t="inlineStr"/>
+      <c r="F1728" t="inlineStr"/>
+      <c r="G1728" t="inlineStr"/>
+      <c r="H1728" t="inlineStr"/>
+      <c r="I1728" t="inlineStr"/>
+      <c r="J1728" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K1728" t="inlineStr"/>
+      <c r="L1728" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>308938</v>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1729" t="inlineStr">
+        <is>
+          <t>Drake</t>
+        </is>
+      </c>
+      <c r="E1729" t="inlineStr"/>
+      <c r="F1729" t="inlineStr"/>
+      <c r="G1729" t="inlineStr"/>
+      <c r="H1729" t="inlineStr"/>
+      <c r="I1729" t="inlineStr"/>
+      <c r="J1729" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K1729" t="inlineStr"/>
+      <c r="L1729" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>308939</v>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1730" t="inlineStr">
+        <is>
+          <t>IncarnateWord</t>
+        </is>
+      </c>
+      <c r="E1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>-370</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>308940</v>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1731" t="inlineStr">
+        <is>
+          <t>McNeeseSt</t>
+        </is>
+      </c>
+      <c r="E1731" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>308941</v>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1732" t="inlineStr">
+        <is>
+          <t>Harvard</t>
+        </is>
+      </c>
+      <c r="E1732" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>180</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>308942</v>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1733" t="inlineStr">
+        <is>
+          <t>Princeton</t>
+        </is>
+      </c>
+      <c r="E1733" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1733" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="K1733" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>308943</v>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1734" t="inlineStr">
+        <is>
+          <t>RobertMorris</t>
+        </is>
+      </c>
+      <c r="E1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>63</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>180</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>308944</v>
+      </c>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1735" t="inlineStr">
+        <is>
+          <t>GardnerWebb</t>
+        </is>
+      </c>
+      <c r="E1735" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>-220</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>308945</v>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1736" t="inlineStr">
+        <is>
+          <t>IllinoisSt</t>
+        </is>
+      </c>
+      <c r="E1736" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>574</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>308946</v>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1737" t="inlineStr">
+        <is>
+          <t>SouthDakota</t>
+        </is>
+      </c>
+      <c r="E1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>16</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>-850</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>308947</v>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>BethuneCookman</t>
+        </is>
+      </c>
+      <c r="E1738" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>820</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>308948</v>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1739" t="inlineStr">
+        <is>
+          <t>JacksonSt</t>
+        </is>
+      </c>
+      <c r="E1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>-1320</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>308949</v>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1740" t="inlineStr">
+        <is>
+          <t>SoCarolinaSt</t>
+        </is>
+      </c>
+      <c r="E1740" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>-390</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>308950</v>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1741" t="inlineStr">
+        <is>
+          <t>DelawareSt</t>
+        </is>
+      </c>
+      <c r="E1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>316</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>308951</v>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1742" t="inlineStr">
+        <is>
+          <t>N.CarolinaA&amp;T</t>
+        </is>
+      </c>
+      <c r="E1742" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>16</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>-750</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>308952</v>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>Hampton</t>
+        </is>
+      </c>
+      <c r="E1743" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>61</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>524</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>308953</v>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>WesternCarolina</t>
+        </is>
+      </c>
+      <c r="E1744" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>64</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>308954</v>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>TheCitadel</t>
+        </is>
+      </c>
+      <c r="E1745" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>-370</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>308955</v>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>EastTennesseeSt</t>
+        </is>
+      </c>
+      <c r="E1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>-150</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>308956</v>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>Furman</t>
+        </is>
+      </c>
+      <c r="E1747" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>130</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>308957</v>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>SEMissouriSt</t>
+        </is>
+      </c>
+      <c r="E1748" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>62</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>295</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>308958</v>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>TennesseeMartin</t>
+        </is>
+      </c>
+      <c r="E1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>-365</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>308959</v>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>CharlestonSou</t>
+        </is>
+      </c>
+      <c r="E1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>-205</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>308960</v>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>NorthAlabama</t>
+        </is>
+      </c>
+      <c r="E1751" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>58</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>171</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>308961</v>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>WesternIllinois</t>
+        </is>
+      </c>
+      <c r="E1752" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>58</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>450</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>308962</v>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>NorthDakota</t>
+        </is>
+      </c>
+      <c r="E1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>-600</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>308963</v>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>IdahoSt</t>
+        </is>
+      </c>
+      <c r="E1754" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>1299</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>308964</v>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>MontanaSt</t>
+        </is>
+      </c>
+      <c r="E1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>-2405</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>308965</v>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>JacksonvilleSt</t>
+        </is>
+      </c>
+      <c r="E1756" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>55</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>624</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>308966</v>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>SamHoustonSt</t>
+        </is>
+      </c>
+      <c r="E1757" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>21</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>-950</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>308967</v>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>TennesseeSt</t>
+        </is>
+      </c>
+      <c r="E1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>41</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>224</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>308968</v>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>EasternIllinois</t>
+        </is>
+      </c>
+      <c r="E1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>7</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>-270</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>308969</v>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>NorthernIowa</t>
+        </is>
+      </c>
+      <c r="E1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>49</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>360</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>308970</v>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>SouthDakotaSt</t>
+        </is>
+      </c>
+      <c r="E1761" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>-450</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>308971</v>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>AustinPeay</t>
+        </is>
+      </c>
+      <c r="E1762" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>47</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>56</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>151</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>308972</v>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>MurraySt</t>
+        </is>
+      </c>
+      <c r="E1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>-175</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>308973</v>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>JamesMadison</t>
+        </is>
+      </c>
+      <c r="E1764" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>17</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>-900</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>308974</v>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="E1765" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>308975</v>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>Towson</t>
+        </is>
+      </c>
+      <c r="E1766" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L1766" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1766" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>308976</v>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>William&amp;Mary</t>
+        </is>
+      </c>
+      <c r="E1767" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>40</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K1767" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="L1767" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="M1767" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>308977</v>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>RhodeIsland</t>
+        </is>
+      </c>
+      <c r="E1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>51</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>412</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>308978</v>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>Villanova</t>
+        </is>
+      </c>
+      <c r="E1769" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>-540</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>308979</v>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="E1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>-140</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>308980</v>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>StonyBrook</t>
+        </is>
+      </c>
+      <c r="E1771" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>40</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>120</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>308981</v>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>MissouriSt</t>
+        </is>
+      </c>
+      <c r="E1772" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>48</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>400</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>308982</v>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>NoDakotaState</t>
+        </is>
+      </c>
+      <c r="E1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>-500</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>308983</v>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>FloridaA&amp;M</t>
+        </is>
+      </c>
+      <c r="E1774" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>-900</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>308984</v>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>Miss.ValleySt</t>
+        </is>
+      </c>
+      <c r="E1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>308985</v>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>WeberSt</t>
+        </is>
+      </c>
+      <c r="E1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>63</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>290</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>308986</v>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>EastWashington</t>
+        </is>
+      </c>
+      <c r="E1777" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>-350</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>308987</v>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>KennesawSt</t>
+        </is>
+      </c>
+      <c r="E1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>7</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>-260</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>308988</v>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="E1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>216</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>308989</v>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>SELouisiana</t>
+        </is>
+      </c>
+      <c r="E1780" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>51</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>-1250</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>308990</v>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>NorthwesternSt</t>
+        </is>
+      </c>
+      <c r="E1781" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>70</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>308991</v>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>Colgate</t>
+        </is>
+      </c>
+      <c r="E1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>46</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>308992</v>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>HolyCross</t>
+        </is>
+      </c>
+      <c r="E1783" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>42</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>20</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>-1250</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>308993</v>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>Wofford</t>
+        </is>
+      </c>
+      <c r="E1784" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>55</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>250</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>308994</v>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>Mercer</t>
+        </is>
+      </c>
+      <c r="E1785" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>14</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>308995</v>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>PrairieView</t>
+        </is>
+      </c>
+      <c r="E1786" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>48</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>-105</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>308996</v>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>Southern</t>
+        </is>
+      </c>
+      <c r="E1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>308997</v>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>CentralArkansas</t>
+        </is>
+      </c>
+      <c r="E1788" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>49</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>-850</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>308998</v>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>Lamar</t>
+        </is>
+      </c>
+      <c r="E1789" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>38</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>62</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>574</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>308999</v>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>NichollsSt</t>
+        </is>
+      </c>
+      <c r="E1790" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>21</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>309000</v>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>HoustonBaptist</t>
+        </is>
+      </c>
+      <c r="E1791" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>65</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>924</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>309001</v>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="E1792" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>34</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>-515</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>309002</v>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="E1793" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>55</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>401</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>309003</v>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>NO.Colorado</t>
+        </is>
+      </c>
+      <c r="E1794" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>53</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>200</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>309004</v>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>SouthernUtah</t>
+        </is>
+      </c>
+      <c r="E1795" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>-240</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>309005</v>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>AlcornSt</t>
+        </is>
+      </c>
+      <c r="E1796" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>17</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>-350</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>309006</v>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>TexasSouthern</t>
+        </is>
+      </c>
+      <c r="E1797" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>282</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>309007</v>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>UCDavis</t>
+        </is>
+      </c>
+      <c r="E1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>-1580</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>309008</v>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>CalPoly</t>
+        </is>
+      </c>
+      <c r="E1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>982</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>309009</v>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>NorthernArizona</t>
+        </is>
+      </c>
+      <c r="E1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>224</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>309010</v>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>CSSacramento</t>
+        </is>
+      </c>
+      <c r="E1801" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>34</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>44</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>-270</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>309011</v>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>StephenF.Austin</t>
+        </is>
+      </c>
+      <c r="E1802" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>18</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>-1050</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>309012</v>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>DixieState</t>
+        </is>
+      </c>
+      <c r="E1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>674</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
